--- a/data_sets/Power/ODO_INPUT_NREL.xlsx
+++ b/data_sets/Power/ODO_INPUT_NREL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hlh/Dropbox/Work/Collaborations/Harsha/Networked_Microgrid/ODO/data_sets/Power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88317EA-2132-0D47-9F98-BAAF566BAEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FC8D16-CDD3-194C-A384-76C0F1C94EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9640" yWindow="2120" windowWidth="41240" windowHeight="21420" tabRatio="938" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9640" yWindow="2120" windowWidth="41240" windowHeight="21420" tabRatio="938" firstSheet="5" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RunSettings" sheetId="107" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9889" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9892" uniqueCount="712">
   <si>
     <t>January</t>
   </si>
@@ -1129,6 +1129,9 @@
   </si>
   <si>
     <t>Scenario1</t>
+  </si>
+  <si>
+    <t>Scenario2</t>
   </si>
   <si>
     <t>nb hours (should be less than 288 hours = 12 days)</t>
@@ -3896,12 +3899,12 @@
         <v>292</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -3917,8 +3920,8 @@
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:H338"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3990,10 +3993,10 @@
         <v>8500</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F3">
         <v>2.5</v>
@@ -4023,7 +4026,7 @@
         <v>40.5299888971117</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -4047,7 +4050,7 @@
         <v>51.545832033249795</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -4071,7 +4074,7 @@
         <v>57.157676649772895</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -4095,7 +4098,7 @@
         <v>64.432290041562197</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -4119,7 +4122,7 @@
         <v>71.914749530259797</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -4143,7 +4146,7 @@
         <v>82.099208278764806</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -4167,7 +4170,7 @@
         <v>92.491513124177999</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -4191,7 +4194,7 @@
         <v>104.962278938674</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -4215,7 +4218,7 @@
         <v>117.43304475317001</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H12" s="4"/>
     </row>
@@ -4239,7 +4242,7 @@
         <v>22.447378466092598</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H13" s="4"/>
     </row>
@@ -4263,7 +4266,7 @@
         <v>26.3964543073497</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H14" s="4"/>
     </row>
@@ -4287,7 +4290,7 @@
         <v>30.761222342423299</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -4311,7 +4314,7 @@
         <v>36.996605249671205</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -4335,7 +4338,7 @@
         <v>43.647680350735698</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -4359,7 +4362,7 @@
         <v>49.467371064167097</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H18" s="4"/>
     </row>
@@ -4383,7 +4386,7 @@
         <v>55.079215680690297</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H19" s="4"/>
     </row>
@@ -4407,7 +4410,7 @@
         <v>61.938136878663002</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H20" s="4"/>
     </row>
@@ -4431,7 +4434,7 @@
         <v>70.875519045718406</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H21" s="4"/>
     </row>
@@ -4455,7 +4458,7 @@
         <v>79.605055115865596</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H22" s="4"/>
     </row>
@@ -4479,7 +4482,7 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H23" s="4"/>
     </row>
@@ -4503,7 +4506,7 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H24" s="4"/>
     </row>
@@ -4527,7 +4530,7 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H25" s="4"/>
     </row>
@@ -4551,7 +4554,7 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H26" s="4"/>
     </row>
@@ -4575,7 +4578,7 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H27" s="4"/>
     </row>
@@ -4599,7 +4602,7 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H28" s="4"/>
     </row>
@@ -4623,7 +4626,7 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H29" s="4"/>
     </row>
@@ -4647,7 +4650,7 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H30" s="4"/>
     </row>
@@ -4671,1603 +4674,1603 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E32" s="4"/>
       <c r="G32" s="12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E33" s="4"/>
       <c r="G33" s="12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E34" s="4"/>
       <c r="G34" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E35" s="4"/>
       <c r="G35" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E36" s="4"/>
       <c r="G36" s="12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E37" s="4"/>
       <c r="G37" s="12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E38" s="4"/>
       <c r="G38" s="12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E39" s="4"/>
       <c r="G39" s="12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E40" s="4"/>
       <c r="G40" s="12" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E41" s="4"/>
       <c r="G41" s="12" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E42" s="4"/>
       <c r="G42" s="12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E43" s="4"/>
       <c r="G43" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E44" s="4"/>
       <c r="G44" s="12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E45" s="4"/>
       <c r="G45" s="12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E46" s="4"/>
       <c r="G46" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E47" s="4"/>
       <c r="G47" s="12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E48" s="4"/>
       <c r="G48" s="12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E49" s="4"/>
       <c r="G49" s="12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E50" s="4"/>
       <c r="G50" s="12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E51" s="4"/>
       <c r="G51" s="12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E52" s="4"/>
       <c r="G52" s="12" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E53" s="4"/>
       <c r="G53" s="12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E54" s="4"/>
       <c r="G54" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E55" s="4"/>
       <c r="G55" s="12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E56" s="4"/>
       <c r="G56" s="12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E57" s="4"/>
       <c r="G57" s="12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H57" s="4"/>
     </row>
     <row r="58" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E58" s="4"/>
       <c r="G58" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E59" s="4"/>
       <c r="G59" s="12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H59" s="4"/>
     </row>
     <row r="60" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E60" s="4"/>
       <c r="G60" s="12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E61" s="4"/>
       <c r="G61" s="12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G62" s="12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G63" s="12" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G64" s="12" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G65" s="12" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G66" s="12" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G67" s="12" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G68" s="12" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G69" s="12" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G70" s="12" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G71" s="12" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G72" s="12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G73" s="12" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G74" s="12" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G75" s="12" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G76" s="12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G77" s="12" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G78" s="12" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="79" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G79" s="12" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G80" s="12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G81" s="12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G82" s="12" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G83" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G84" s="12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G85" s="12" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G86" s="12" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="87" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G87" s="12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G88" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G89" s="12" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="90" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G90" s="12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="91" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G91" s="12" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G92" s="12" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G93" s="12" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="94" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G94" s="12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G95" s="12" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="96" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G96" s="12" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="97" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G97" s="12" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="98" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G98" s="12" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="99" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G99" s="12" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="100" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G100" s="12" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G101" s="12" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="102" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G102" s="12" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="103" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G103" s="12" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="104" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G104" s="12" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="105" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G105" s="12" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="106" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G106" s="12" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="107" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G107" s="12" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="108" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G108" s="12" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="109" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G109" s="12" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="110" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G110" s="12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="111" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G111" s="12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="112" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G112" s="12" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="113" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G113" s="12" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="114" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G114" s="12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="115" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G115" s="12" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="116" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G116" s="12" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="117" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G117" s="12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="118" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G118" s="12" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="119" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G119" s="12" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="120" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G120" s="12" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="121" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G121" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="122" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G122" s="12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="123" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G123" s="12" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="124" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G124" s="12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="125" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G125" s="12" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="126" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G126" s="12" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="127" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G127" s="12" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="128" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G128" s="12" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="129" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G129" s="12" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="130" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G130" s="12" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="131" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G131" s="12" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="132" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G132" s="12" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="133" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G133" s="12" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="134" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G134" s="12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="135" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G135" s="12" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="136" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G136" s="12" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="137" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G137" s="12" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="138" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G138" s="12" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="139" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G139" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="140" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G140" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="141" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G141" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="142" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G142" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="143" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G143" s="12" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="144" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G144" s="12" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="145" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G145" s="12" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="146" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G146" s="12" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="147" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G147" s="12" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="148" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G148" s="12" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="149" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G149" s="12" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="150" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G150" s="12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="151" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G151" s="12" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="152" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G152" s="12" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="153" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G153" s="12" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="154" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G154" s="12" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="155" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G155" s="12" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="156" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G156" s="12" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="157" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G157" s="12" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="158" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G158" s="12" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="159" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G159" s="12" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="160" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G160" s="12" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="161" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G161" s="12" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="162" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G162" s="12" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="163" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G163" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="164" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G164" s="12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="165" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G165" s="12" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="166" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G166" s="12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="167" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G167" s="12" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="168" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G168" s="12" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="169" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G169" s="12" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="170" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G170" s="12" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="171" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G171" s="12" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="172" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G172" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="173" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G173" s="12" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="174" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G174" s="12" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="175" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G175" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="176" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G176" s="12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="177" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G177" s="12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="178" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G178" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="179" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G179" s="12" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="180" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G180" s="12" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="181" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G181" s="12" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="182" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G182" s="12" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="183" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G183" s="12" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="184" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G184" s="12" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="185" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G185" s="12" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="186" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G186" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="187" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G187" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="188" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G188" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="189" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G189" s="12" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="190" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G190" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="191" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G191" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="192" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G192" s="12" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="193" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G193" s="12" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="194" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G194" s="12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="195" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G195" s="12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="196" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G196" s="12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="197" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G197" s="12" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="198" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G198" s="12" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="199" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G199" s="12" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="200" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G200" s="12" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="201" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G201" s="12" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="202" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G202" s="12" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="203" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G203" s="12" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="204" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G204" s="12" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="205" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G205" s="12" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="206" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G206" s="12" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="207" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G207" s="12" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="208" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G208" s="12" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="209" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G209" s="12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="210" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G210" s="12" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="211" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G211" s="12" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="212" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G212" s="12" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="213" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G213" s="12" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="214" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G214" s="12" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="215" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G215" s="12" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="216" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G216" s="12" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="217" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G217" s="12" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="218" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G218" s="12" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="219" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G219" s="12" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="220" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G220" s="12" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="221" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G221" s="12" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="222" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G222" s="12" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="223" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G223" s="12" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="224" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G224" s="12" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="225" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G225" s="12" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="226" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G226" s="12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="227" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G227" s="12" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="228" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G228" s="12" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="229" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G229" s="12" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="230" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G230" s="12" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="231" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G231" s="12" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="232" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G232" s="12" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="233" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G233" s="12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="234" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G234" s="12" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="235" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G235" s="12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="236" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G236" s="12" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="237" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G237" s="12" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="238" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G238" s="12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="239" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G239" s="12" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="240" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G240" s="12" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="241" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G241" s="12" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="242" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G242" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="243" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G243" s="12" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="244" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G244" s="12" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="245" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G245" s="12" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="246" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G246" s="12" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="247" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G247" s="12" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="248" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G248" s="12" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="249" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G249" s="12" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="250" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G250" s="12" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="251" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G251" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="252" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G252" s="12" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="253" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G253" s="12" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="254" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G254" s="12" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="255" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G255" s="12" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="256" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G256" s="12" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="257" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G257" s="12" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="258" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G258" s="12" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="259" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G259" s="12" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="260" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G260" s="12" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="261" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G261" s="12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="262" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G262" s="12" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="263" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G263" s="12" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="264" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G264" s="12" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="265" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G265" s="12" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="266" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G266" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="267" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G267" s="12" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="268" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G268" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="269" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G269" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="270" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G270" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="271" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G271" s="12" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="272" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G272" s="12" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="273" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G273" s="12" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="274" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G274" s="12" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="275" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G275" s="12" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="276" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G276" s="12" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="277" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G277" s="12" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="278" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G278" s="12" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="279" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G279" s="12" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="280" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G280" s="12" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="281" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G281" s="12" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="282" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G282" s="12" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="283" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G283" s="12" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="284" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G284" s="12" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="285" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G285" s="12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="286" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G286" s="12" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="287" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G287" s="12" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="288" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G288" s="12" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="289" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G289" s="12" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="290" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G290" s="12" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="291" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G291" s="12" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="292" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G292" s="12" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="293" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G293" s="12" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="294" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G294" s="12" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="295" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G295" s="12" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="296" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G296" s="12" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="297" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G297" s="12" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="298" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G298" s="12" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="299" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G299" s="12" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="300" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G300" s="12" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="301" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G301" s="12" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="302" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G302" s="12" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="303" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G303" s="12" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="304" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G304" s="12" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="305" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G305" s="12" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="306" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G306" s="12" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="307" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G307" s="12" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="308" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G308" s="12" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="309" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G309" s="12" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="310" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G310" s="12" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="311" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G311" s="12" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="312" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G312" s="12" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="313" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G313" s="12" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="314" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G314" s="12" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="315" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G315" s="12" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="316" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G316" s="12" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="317" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G317" s="12" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="318" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G318" s="12" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="319" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G319" s="12" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="320" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G320" s="12" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="321" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G321" s="12" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="322" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G322" s="12" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="323" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G323" s="12" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="324" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G324" s="12" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="325" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G325" s="12" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="326" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G326" s="12" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="327" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G327" s="12" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="328" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G328" s="12" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="329" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G329" s="12" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="330" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G330" s="12" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="331" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G331" s="12" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="332" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G332" s="12" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="333" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G333" s="12" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="334" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G334" s="12" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="335" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G335" s="12" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="336" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G336" s="12" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="337" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G337" s="12" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="338" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G338" s="12" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -12344,7 +12347,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -12364,7 +12367,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12384,7 +12387,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12404,7 +12407,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -12718,7 +12721,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -12735,7 +12738,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -12752,7 +12755,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -12769,7 +12772,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -12865,16 +12868,16 @@
         <v>291</v>
       </c>
       <c r="R1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="S1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="U1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -13919,7 +13922,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -13984,7 +13987,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -14049,7 +14052,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -14114,7 +14117,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -14188,8 +14191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937DF613-129E-417F-876D-4B00A3A21EFA}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14218,7 +14221,7 @@
         <v>356</v>
       </c>
       <c r="C1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -14235,20 +14238,34 @@
         <v>352</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="F2" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="G2" s="19" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="18">
+        <v>43466.25</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="18"/>
+      <c r="H3" s="19" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="18"/>
@@ -14258,16 +14275,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="notEqual">
       <formula>0</formula>
@@ -14398,7 +14405,7 @@
         <v>332</v>
       </c>
       <c r="M2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N2" t="s">
         <v>343</v>
@@ -14460,7 +14467,7 @@
         <v>332</v>
       </c>
       <c r="M3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N3" t="s">
         <v>343</v>
@@ -14522,7 +14529,7 @@
         <v>332</v>
       </c>
       <c r="M4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N4" t="s">
         <v>343</v>
@@ -14585,7 +14592,7 @@
         <v>332</v>
       </c>
       <c r="M5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N5" t="s">
         <v>343</v>
@@ -14648,7 +14655,7 @@
         <v>332</v>
       </c>
       <c r="M6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N6" t="s">
         <v>343</v>
@@ -14711,7 +14718,7 @@
         <v>332</v>
       </c>
       <c r="M7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N7" t="s">
         <v>343</v>
@@ -14774,7 +14781,7 @@
         <v>332</v>
       </c>
       <c r="M8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N8" t="s">
         <v>343</v>
@@ -14837,7 +14844,7 @@
         <v>332</v>
       </c>
       <c r="M9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N9" t="s">
         <v>343</v>
@@ -14900,7 +14907,7 @@
         <v>332</v>
       </c>
       <c r="M10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N10" t="s">
         <v>343</v>
@@ -14963,7 +14970,7 @@
         <v>332</v>
       </c>
       <c r="M11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N11" t="s">
         <v>343</v>
@@ -15026,7 +15033,7 @@
         <v>332</v>
       </c>
       <c r="M12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N12" t="s">
         <v>343</v>
@@ -15089,7 +15096,7 @@
         <v>332</v>
       </c>
       <c r="M13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N13" t="s">
         <v>343</v>
@@ -15152,7 +15159,7 @@
         <v>332</v>
       </c>
       <c r="M14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N14" t="s">
         <v>343</v>
@@ -15215,7 +15222,7 @@
         <v>332</v>
       </c>
       <c r="M15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N15" t="s">
         <v>343</v>
@@ -15278,7 +15285,7 @@
         <v>332</v>
       </c>
       <c r="M16" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N16" t="s">
         <v>343</v>
@@ -15341,7 +15348,7 @@
         <v>332</v>
       </c>
       <c r="M17" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N17" t="s">
         <v>343</v>
@@ -15404,7 +15411,7 @@
         <v>332</v>
       </c>
       <c r="M18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N18" t="s">
         <v>343</v>
@@ -15467,7 +15474,7 @@
         <v>332</v>
       </c>
       <c r="M19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N19" t="s">
         <v>343</v>
@@ -15530,7 +15537,7 @@
         <v>332</v>
       </c>
       <c r="M20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N20" t="s">
         <v>343</v>
@@ -15593,7 +15600,7 @@
         <v>332</v>
       </c>
       <c r="M21" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N21" t="s">
         <v>343</v>
@@ -15656,7 +15663,7 @@
         <v>332</v>
       </c>
       <c r="M22" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N22" t="s">
         <v>343</v>
@@ -15719,7 +15726,7 @@
         <v>332</v>
       </c>
       <c r="M23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N23" t="s">
         <v>343</v>
@@ -15782,7 +15789,7 @@
         <v>332</v>
       </c>
       <c r="M24" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N24" t="s">
         <v>343</v>
@@ -15845,7 +15852,7 @@
         <v>332</v>
       </c>
       <c r="M25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N25" t="s">
         <v>343</v>
@@ -15908,7 +15915,7 @@
         <v>332</v>
       </c>
       <c r="M26" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N26" t="s">
         <v>343</v>
@@ -15971,7 +15978,7 @@
         <v>332</v>
       </c>
       <c r="M27" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N27" t="s">
         <v>343</v>
@@ -16034,7 +16041,7 @@
         <v>332</v>
       </c>
       <c r="M28" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N28" t="s">
         <v>343</v>
@@ -16097,7 +16104,7 @@
         <v>332</v>
       </c>
       <c r="M29" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N29" t="s">
         <v>343</v>
@@ -16160,7 +16167,7 @@
         <v>332</v>
       </c>
       <c r="M30" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N30" t="s">
         <v>343</v>
@@ -16223,7 +16230,7 @@
         <v>332</v>
       </c>
       <c r="M31" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N31" t="s">
         <v>343</v>
@@ -16286,7 +16293,7 @@
         <v>332</v>
       </c>
       <c r="M32" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N32" t="s">
         <v>343</v>
@@ -16349,7 +16356,7 @@
         <v>332</v>
       </c>
       <c r="M33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N33" t="s">
         <v>343</v>
@@ -16412,7 +16419,7 @@
         <v>332</v>
       </c>
       <c r="M34" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N34" t="s">
         <v>343</v>
@@ -16475,7 +16482,7 @@
         <v>332</v>
       </c>
       <c r="M35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N35" t="s">
         <v>343</v>
@@ -16538,7 +16545,7 @@
         <v>332</v>
       </c>
       <c r="M36" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N36" t="s">
         <v>343</v>
@@ -16601,7 +16608,7 @@
         <v>332</v>
       </c>
       <c r="M37" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N37" t="s">
         <v>343</v>
@@ -16664,7 +16671,7 @@
         <v>332</v>
       </c>
       <c r="M38" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N38" t="s">
         <v>343</v>
@@ -16727,7 +16734,7 @@
         <v>332</v>
       </c>
       <c r="M39" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N39" t="s">
         <v>343</v>
@@ -16790,7 +16797,7 @@
         <v>332</v>
       </c>
       <c r="M40" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N40" t="s">
         <v>343</v>
@@ -16853,7 +16860,7 @@
         <v>332</v>
       </c>
       <c r="M41" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N41" t="s">
         <v>343</v>
@@ -16916,7 +16923,7 @@
         <v>332</v>
       </c>
       <c r="M42" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N42" t="s">
         <v>343</v>
@@ -16979,7 +16986,7 @@
         <v>332</v>
       </c>
       <c r="M43" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N43" t="s">
         <v>343</v>
@@ -17042,7 +17049,7 @@
         <v>332</v>
       </c>
       <c r="M44" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N44" t="s">
         <v>343</v>
@@ -17105,7 +17112,7 @@
         <v>332</v>
       </c>
       <c r="M45" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N45" t="s">
         <v>343</v>
@@ -17168,7 +17175,7 @@
         <v>332</v>
       </c>
       <c r="M46" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N46" t="s">
         <v>343</v>
@@ -17231,7 +17238,7 @@
         <v>332</v>
       </c>
       <c r="M47" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N47" t="s">
         <v>343</v>
@@ -17294,7 +17301,7 @@
         <v>332</v>
       </c>
       <c r="M48" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N48" t="s">
         <v>343</v>
@@ -17357,7 +17364,7 @@
         <v>332</v>
       </c>
       <c r="M49" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N49" t="s">
         <v>343</v>
@@ -17419,7 +17426,7 @@
         <v>332</v>
       </c>
       <c r="M50" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N50" t="s">
         <v>343</v>
@@ -17482,7 +17489,7 @@
         <v>332</v>
       </c>
       <c r="M51" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N51" t="s">
         <v>343</v>
@@ -17545,7 +17552,7 @@
         <v>332</v>
       </c>
       <c r="M52" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N52" t="s">
         <v>343</v>
@@ -17608,7 +17615,7 @@
         <v>332</v>
       </c>
       <c r="M53" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N53" t="s">
         <v>343</v>
@@ -17671,7 +17678,7 @@
         <v>332</v>
       </c>
       <c r="M54" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N54" t="s">
         <v>343</v>
@@ -17734,7 +17741,7 @@
         <v>332</v>
       </c>
       <c r="M55" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N55" t="s">
         <v>343</v>
@@ -17797,7 +17804,7 @@
         <v>332</v>
       </c>
       <c r="M56" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N56" t="s">
         <v>343</v>
@@ -17860,7 +17867,7 @@
         <v>332</v>
       </c>
       <c r="M57" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N57" t="s">
         <v>343</v>
@@ -17923,7 +17930,7 @@
         <v>332</v>
       </c>
       <c r="M58" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N58" t="s">
         <v>343</v>
@@ -17986,7 +17993,7 @@
         <v>332</v>
       </c>
       <c r="M59" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N59" t="s">
         <v>343</v>
@@ -18049,7 +18056,7 @@
         <v>332</v>
       </c>
       <c r="M60" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N60" t="s">
         <v>343</v>
@@ -18112,7 +18119,7 @@
         <v>332</v>
       </c>
       <c r="M61" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N61" t="s">
         <v>343</v>
@@ -18175,7 +18182,7 @@
         <v>332</v>
       </c>
       <c r="M62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N62" t="s">
         <v>343</v>
@@ -18238,7 +18245,7 @@
         <v>332</v>
       </c>
       <c r="M63" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N63" t="s">
         <v>343</v>
@@ -18301,7 +18308,7 @@
         <v>332</v>
       </c>
       <c r="M64" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N64" t="s">
         <v>343</v>
@@ -18364,7 +18371,7 @@
         <v>332</v>
       </c>
       <c r="M65" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N65" t="s">
         <v>343</v>
@@ -18427,7 +18434,7 @@
         <v>332</v>
       </c>
       <c r="M66" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N66" t="s">
         <v>343</v>
@@ -18490,7 +18497,7 @@
         <v>332</v>
       </c>
       <c r="M67" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N67" t="s">
         <v>343</v>
@@ -18553,7 +18560,7 @@
         <v>332</v>
       </c>
       <c r="M68" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N68" t="s">
         <v>343</v>
@@ -18616,7 +18623,7 @@
         <v>332</v>
       </c>
       <c r="M69" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N69" t="s">
         <v>343</v>
@@ -18679,7 +18686,7 @@
         <v>332</v>
       </c>
       <c r="M70" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N70" t="s">
         <v>343</v>
@@ -18742,7 +18749,7 @@
         <v>332</v>
       </c>
       <c r="M71" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N71" t="s">
         <v>343</v>
@@ -18805,7 +18812,7 @@
         <v>332</v>
       </c>
       <c r="M72" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N72" t="s">
         <v>343</v>
@@ -18868,7 +18875,7 @@
         <v>332</v>
       </c>
       <c r="M73" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N73" t="s">
         <v>343</v>
@@ -18931,7 +18938,7 @@
         <v>332</v>
       </c>
       <c r="M74" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N74" t="s">
         <v>343</v>
@@ -18994,7 +19001,7 @@
         <v>332</v>
       </c>
       <c r="M75" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N75" t="s">
         <v>343</v>
@@ -19057,7 +19064,7 @@
         <v>332</v>
       </c>
       <c r="M76" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N76" t="s">
         <v>343</v>
@@ -19120,7 +19127,7 @@
         <v>332</v>
       </c>
       <c r="M77" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N77" t="s">
         <v>343</v>
@@ -19183,7 +19190,7 @@
         <v>332</v>
       </c>
       <c r="M78" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N78" t="s">
         <v>343</v>
@@ -19246,7 +19253,7 @@
         <v>332</v>
       </c>
       <c r="M79" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N79" t="s">
         <v>343</v>
@@ -19309,7 +19316,7 @@
         <v>332</v>
       </c>
       <c r="M80" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N80" t="s">
         <v>343</v>
@@ -19372,7 +19379,7 @@
         <v>332</v>
       </c>
       <c r="M81" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N81" t="s">
         <v>343</v>
@@ -19435,7 +19442,7 @@
         <v>332</v>
       </c>
       <c r="M82" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N82" t="s">
         <v>343</v>
@@ -19498,7 +19505,7 @@
         <v>332</v>
       </c>
       <c r="M83" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N83" t="s">
         <v>343</v>
@@ -19561,7 +19568,7 @@
         <v>332</v>
       </c>
       <c r="M84" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N84" t="s">
         <v>343</v>
@@ -19624,7 +19631,7 @@
         <v>332</v>
       </c>
       <c r="M85" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N85" t="s">
         <v>343</v>
@@ -19687,7 +19694,7 @@
         <v>332</v>
       </c>
       <c r="M86" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N86" t="s">
         <v>343</v>
@@ -19750,7 +19757,7 @@
         <v>332</v>
       </c>
       <c r="M87" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N87" t="s">
         <v>343</v>
@@ -19813,7 +19820,7 @@
         <v>332</v>
       </c>
       <c r="M88" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N88" t="s">
         <v>343</v>
@@ -19876,7 +19883,7 @@
         <v>332</v>
       </c>
       <c r="M89" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N89" t="s">
         <v>343</v>
@@ -19939,7 +19946,7 @@
         <v>332</v>
       </c>
       <c r="M90" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N90" t="s">
         <v>343</v>
@@ -20002,7 +20009,7 @@
         <v>332</v>
       </c>
       <c r="M91" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N91" t="s">
         <v>343</v>
@@ -20065,7 +20072,7 @@
         <v>332</v>
       </c>
       <c r="M92" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N92" t="s">
         <v>343</v>
@@ -20128,7 +20135,7 @@
         <v>332</v>
       </c>
       <c r="M93" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N93" t="s">
         <v>343</v>
@@ -20191,7 +20198,7 @@
         <v>332</v>
       </c>
       <c r="M94" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N94" t="s">
         <v>343</v>
@@ -20254,7 +20261,7 @@
         <v>332</v>
       </c>
       <c r="M95" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N95" t="s">
         <v>343</v>
@@ -20317,7 +20324,7 @@
         <v>332</v>
       </c>
       <c r="M96" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N96" t="s">
         <v>343</v>
@@ -20380,7 +20387,7 @@
         <v>332</v>
       </c>
       <c r="M97" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N97" t="s">
         <v>343</v>
@@ -20442,7 +20449,7 @@
         <v>332</v>
       </c>
       <c r="M98" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N98" t="s">
         <v>343</v>
@@ -20505,7 +20512,7 @@
         <v>332</v>
       </c>
       <c r="M99" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N99" t="s">
         <v>343</v>
@@ -20568,7 +20575,7 @@
         <v>332</v>
       </c>
       <c r="M100" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N100" t="s">
         <v>343</v>
@@ -20631,7 +20638,7 @@
         <v>332</v>
       </c>
       <c r="M101" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N101" t="s">
         <v>343</v>
@@ -20694,7 +20701,7 @@
         <v>332</v>
       </c>
       <c r="M102" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N102" t="s">
         <v>343</v>
@@ -20757,7 +20764,7 @@
         <v>332</v>
       </c>
       <c r="M103" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N103" t="s">
         <v>343</v>
@@ -20820,7 +20827,7 @@
         <v>332</v>
       </c>
       <c r="M104" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N104" t="s">
         <v>343</v>
@@ -20883,7 +20890,7 @@
         <v>332</v>
       </c>
       <c r="M105" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N105" t="s">
         <v>343</v>
@@ -20946,7 +20953,7 @@
         <v>332</v>
       </c>
       <c r="M106" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N106" t="s">
         <v>343</v>
@@ -21009,7 +21016,7 @@
         <v>332</v>
       </c>
       <c r="M107" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N107" t="s">
         <v>343</v>
@@ -21072,7 +21079,7 @@
         <v>332</v>
       </c>
       <c r="M108" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N108" t="s">
         <v>343</v>
@@ -21135,7 +21142,7 @@
         <v>332</v>
       </c>
       <c r="M109" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N109" t="s">
         <v>343</v>
@@ -21198,7 +21205,7 @@
         <v>332</v>
       </c>
       <c r="M110" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N110" t="s">
         <v>343</v>
@@ -21261,7 +21268,7 @@
         <v>332</v>
       </c>
       <c r="M111" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N111" t="s">
         <v>343</v>
@@ -21324,7 +21331,7 @@
         <v>332</v>
       </c>
       <c r="M112" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N112" t="s">
         <v>343</v>
@@ -21387,7 +21394,7 @@
         <v>332</v>
       </c>
       <c r="M113" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N113" t="s">
         <v>343</v>
@@ -21450,7 +21457,7 @@
         <v>332</v>
       </c>
       <c r="M114" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N114" t="s">
         <v>343</v>
@@ -21513,7 +21520,7 @@
         <v>332</v>
       </c>
       <c r="M115" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N115" t="s">
         <v>343</v>
@@ -21576,7 +21583,7 @@
         <v>332</v>
       </c>
       <c r="M116" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N116" t="s">
         <v>343</v>
@@ -21639,7 +21646,7 @@
         <v>332</v>
       </c>
       <c r="M117" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N117" t="s">
         <v>343</v>
@@ -21702,7 +21709,7 @@
         <v>332</v>
       </c>
       <c r="M118" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N118" t="s">
         <v>343</v>
@@ -21765,7 +21772,7 @@
         <v>332</v>
       </c>
       <c r="M119" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N119" t="s">
         <v>343</v>
@@ -21828,7 +21835,7 @@
         <v>332</v>
       </c>
       <c r="M120" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N120" t="s">
         <v>343</v>
@@ -21891,7 +21898,7 @@
         <v>332</v>
       </c>
       <c r="M121" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N121" t="s">
         <v>343</v>
@@ -21954,7 +21961,7 @@
         <v>332</v>
       </c>
       <c r="M122" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N122" t="s">
         <v>343</v>
@@ -22017,7 +22024,7 @@
         <v>332</v>
       </c>
       <c r="M123" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N123" t="s">
         <v>343</v>
@@ -22080,7 +22087,7 @@
         <v>332</v>
       </c>
       <c r="M124" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N124" t="s">
         <v>343</v>
@@ -22143,7 +22150,7 @@
         <v>332</v>
       </c>
       <c r="M125" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N125" t="s">
         <v>343</v>
@@ -22206,7 +22213,7 @@
         <v>332</v>
       </c>
       <c r="M126" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N126" t="s">
         <v>343</v>
@@ -22269,7 +22276,7 @@
         <v>332</v>
       </c>
       <c r="M127" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N127" t="s">
         <v>343</v>
@@ -22332,7 +22339,7 @@
         <v>332</v>
       </c>
       <c r="M128" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N128" t="s">
         <v>343</v>
@@ -22395,7 +22402,7 @@
         <v>332</v>
       </c>
       <c r="M129" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N129" t="s">
         <v>343</v>
@@ -22458,7 +22465,7 @@
         <v>332</v>
       </c>
       <c r="M130" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N130" t="s">
         <v>343</v>
@@ -22521,7 +22528,7 @@
         <v>332</v>
       </c>
       <c r="M131" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N131" t="s">
         <v>343</v>
@@ -22584,7 +22591,7 @@
         <v>332</v>
       </c>
       <c r="M132" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N132" t="s">
         <v>343</v>
@@ -22647,7 +22654,7 @@
         <v>332</v>
       </c>
       <c r="M133" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N133" t="s">
         <v>343</v>
@@ -22710,7 +22717,7 @@
         <v>332</v>
       </c>
       <c r="M134" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N134" t="s">
         <v>343</v>
@@ -22773,7 +22780,7 @@
         <v>332</v>
       </c>
       <c r="M135" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N135" t="s">
         <v>343</v>
@@ -22836,7 +22843,7 @@
         <v>332</v>
       </c>
       <c r="M136" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N136" t="s">
         <v>343</v>
@@ -22899,7 +22906,7 @@
         <v>332</v>
       </c>
       <c r="M137" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N137" t="s">
         <v>343</v>
@@ -22962,7 +22969,7 @@
         <v>332</v>
       </c>
       <c r="M138" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N138" t="s">
         <v>343</v>
@@ -23025,7 +23032,7 @@
         <v>332</v>
       </c>
       <c r="M139" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N139" t="s">
         <v>343</v>
@@ -23088,7 +23095,7 @@
         <v>332</v>
       </c>
       <c r="M140" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N140" t="s">
         <v>343</v>
@@ -23151,7 +23158,7 @@
         <v>332</v>
       </c>
       <c r="M141" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N141" t="s">
         <v>343</v>
@@ -23214,7 +23221,7 @@
         <v>332</v>
       </c>
       <c r="M142" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N142" t="s">
         <v>343</v>
@@ -23277,7 +23284,7 @@
         <v>332</v>
       </c>
       <c r="M143" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N143" t="s">
         <v>343</v>
@@ -23340,7 +23347,7 @@
         <v>332</v>
       </c>
       <c r="M144" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N144" t="s">
         <v>343</v>
@@ -23403,7 +23410,7 @@
         <v>332</v>
       </c>
       <c r="M145" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N145" t="s">
         <v>343</v>
@@ -23465,7 +23472,7 @@
         <v>332</v>
       </c>
       <c r="M146" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N146" t="s">
         <v>343</v>
@@ -23528,7 +23535,7 @@
         <v>332</v>
       </c>
       <c r="M147" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N147" t="s">
         <v>343</v>
@@ -23591,7 +23598,7 @@
         <v>332</v>
       </c>
       <c r="M148" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N148" t="s">
         <v>343</v>
@@ -23654,7 +23661,7 @@
         <v>332</v>
       </c>
       <c r="M149" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N149" t="s">
         <v>343</v>
@@ -23717,7 +23724,7 @@
         <v>332</v>
       </c>
       <c r="M150" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N150" t="s">
         <v>343</v>
@@ -23780,7 +23787,7 @@
         <v>332</v>
       </c>
       <c r="M151" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N151" t="s">
         <v>343</v>
@@ -23843,7 +23850,7 @@
         <v>332</v>
       </c>
       <c r="M152" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N152" t="s">
         <v>343</v>
@@ -23906,7 +23913,7 @@
         <v>332</v>
       </c>
       <c r="M153" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N153" t="s">
         <v>343</v>
@@ -23969,7 +23976,7 @@
         <v>332</v>
       </c>
       <c r="M154" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N154" t="s">
         <v>343</v>
@@ -24032,7 +24039,7 @@
         <v>332</v>
       </c>
       <c r="M155" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N155" t="s">
         <v>343</v>
@@ -24095,7 +24102,7 @@
         <v>332</v>
       </c>
       <c r="M156" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N156" t="s">
         <v>343</v>
@@ -24158,7 +24165,7 @@
         <v>332</v>
       </c>
       <c r="M157" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N157" t="s">
         <v>343</v>
@@ -24221,7 +24228,7 @@
         <v>332</v>
       </c>
       <c r="M158" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N158" t="s">
         <v>343</v>
@@ -24284,7 +24291,7 @@
         <v>332</v>
       </c>
       <c r="M159" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N159" t="s">
         <v>343</v>
@@ -24347,7 +24354,7 @@
         <v>332</v>
       </c>
       <c r="M160" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N160" t="s">
         <v>343</v>
@@ -24410,7 +24417,7 @@
         <v>332</v>
       </c>
       <c r="M161" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N161" t="s">
         <v>343</v>
@@ -24473,7 +24480,7 @@
         <v>332</v>
       </c>
       <c r="M162" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N162" t="s">
         <v>343</v>
@@ -24536,7 +24543,7 @@
         <v>332</v>
       </c>
       <c r="M163" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N163" t="s">
         <v>343</v>
@@ -24599,7 +24606,7 @@
         <v>332</v>
       </c>
       <c r="M164" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N164" t="s">
         <v>343</v>
@@ -24662,7 +24669,7 @@
         <v>332</v>
       </c>
       <c r="M165" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N165" t="s">
         <v>343</v>
@@ -24725,7 +24732,7 @@
         <v>332</v>
       </c>
       <c r="M166" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N166" t="s">
         <v>343</v>
@@ -24788,7 +24795,7 @@
         <v>332</v>
       </c>
       <c r="M167" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N167" t="s">
         <v>343</v>
@@ -24851,7 +24858,7 @@
         <v>332</v>
       </c>
       <c r="M168" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N168" t="s">
         <v>343</v>
@@ -24914,7 +24921,7 @@
         <v>332</v>
       </c>
       <c r="M169" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N169" t="s">
         <v>343</v>
@@ -24977,7 +24984,7 @@
         <v>332</v>
       </c>
       <c r="M170" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N170" t="s">
         <v>343</v>
@@ -25040,7 +25047,7 @@
         <v>332</v>
       </c>
       <c r="M171" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N171" t="s">
         <v>343</v>
@@ -25103,7 +25110,7 @@
         <v>332</v>
       </c>
       <c r="M172" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N172" t="s">
         <v>343</v>
@@ -25166,7 +25173,7 @@
         <v>332</v>
       </c>
       <c r="M173" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N173" t="s">
         <v>343</v>
@@ -25229,7 +25236,7 @@
         <v>332</v>
       </c>
       <c r="M174" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N174" t="s">
         <v>343</v>
@@ -25292,7 +25299,7 @@
         <v>332</v>
       </c>
       <c r="M175" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N175" t="s">
         <v>343</v>
@@ -25355,7 +25362,7 @@
         <v>332</v>
       </c>
       <c r="M176" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N176" t="s">
         <v>343</v>
@@ -25418,7 +25425,7 @@
         <v>332</v>
       </c>
       <c r="M177" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N177" t="s">
         <v>343</v>
@@ -25481,7 +25488,7 @@
         <v>332</v>
       </c>
       <c r="M178" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N178" t="s">
         <v>343</v>
@@ -25544,7 +25551,7 @@
         <v>332</v>
       </c>
       <c r="M179" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N179" t="s">
         <v>343</v>
@@ -25607,7 +25614,7 @@
         <v>332</v>
       </c>
       <c r="M180" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N180" t="s">
         <v>343</v>
@@ -25670,7 +25677,7 @@
         <v>332</v>
       </c>
       <c r="M181" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N181" t="s">
         <v>343</v>
@@ -25733,7 +25740,7 @@
         <v>332</v>
       </c>
       <c r="M182" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N182" t="s">
         <v>343</v>
@@ -25796,7 +25803,7 @@
         <v>332</v>
       </c>
       <c r="M183" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N183" t="s">
         <v>343</v>
@@ -25859,7 +25866,7 @@
         <v>332</v>
       </c>
       <c r="M184" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N184" t="s">
         <v>343</v>
@@ -25922,7 +25929,7 @@
         <v>332</v>
       </c>
       <c r="M185" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N185" t="s">
         <v>343</v>
@@ -25985,7 +25992,7 @@
         <v>332</v>
       </c>
       <c r="M186" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N186" t="s">
         <v>343</v>
@@ -26048,7 +26055,7 @@
         <v>332</v>
       </c>
       <c r="M187" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N187" t="s">
         <v>343</v>
@@ -26111,7 +26118,7 @@
         <v>332</v>
       </c>
       <c r="M188" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N188" t="s">
         <v>343</v>
@@ -26174,7 +26181,7 @@
         <v>332</v>
       </c>
       <c r="M189" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N189" t="s">
         <v>343</v>
@@ -26237,7 +26244,7 @@
         <v>332</v>
       </c>
       <c r="M190" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N190" t="s">
         <v>343</v>
@@ -26300,7 +26307,7 @@
         <v>332</v>
       </c>
       <c r="M191" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N191" t="s">
         <v>343</v>
@@ -26363,7 +26370,7 @@
         <v>332</v>
       </c>
       <c r="M192" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N192" t="s">
         <v>343</v>
@@ -26426,7 +26433,7 @@
         <v>332</v>
       </c>
       <c r="M193" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N193" t="s">
         <v>343</v>
@@ -26489,7 +26496,7 @@
         <v>332</v>
       </c>
       <c r="M194" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N194" t="s">
         <v>343</v>
@@ -26552,7 +26559,7 @@
         <v>332</v>
       </c>
       <c r="M195" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N195" t="s">
         <v>343</v>
@@ -26615,7 +26622,7 @@
         <v>332</v>
       </c>
       <c r="M196" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N196" t="s">
         <v>343</v>
@@ -26678,7 +26685,7 @@
         <v>332</v>
       </c>
       <c r="M197" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N197" t="s">
         <v>343</v>
@@ -26741,7 +26748,7 @@
         <v>332</v>
       </c>
       <c r="M198" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N198" t="s">
         <v>343</v>
@@ -26804,7 +26811,7 @@
         <v>332</v>
       </c>
       <c r="M199" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N199" t="s">
         <v>343</v>
@@ -26867,7 +26874,7 @@
         <v>332</v>
       </c>
       <c r="M200" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N200" t="s">
         <v>343</v>
@@ -26930,7 +26937,7 @@
         <v>332</v>
       </c>
       <c r="M201" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N201" t="s">
         <v>343</v>
@@ -26993,7 +27000,7 @@
         <v>332</v>
       </c>
       <c r="M202" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N202" t="s">
         <v>343</v>
@@ -27056,7 +27063,7 @@
         <v>332</v>
       </c>
       <c r="M203" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N203" t="s">
         <v>343</v>
@@ -27119,7 +27126,7 @@
         <v>332</v>
       </c>
       <c r="M204" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N204" t="s">
         <v>343</v>
@@ -27182,7 +27189,7 @@
         <v>332</v>
       </c>
       <c r="M205" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N205" t="s">
         <v>343</v>
@@ -27245,7 +27252,7 @@
         <v>332</v>
       </c>
       <c r="M206" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N206" t="s">
         <v>343</v>
@@ -27308,7 +27315,7 @@
         <v>332</v>
       </c>
       <c r="M207" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N207" t="s">
         <v>343</v>
@@ -27371,7 +27378,7 @@
         <v>332</v>
       </c>
       <c r="M208" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N208" t="s">
         <v>343</v>
@@ -27434,7 +27441,7 @@
         <v>332</v>
       </c>
       <c r="M209" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N209" t="s">
         <v>343</v>
@@ -27497,7 +27504,7 @@
         <v>332</v>
       </c>
       <c r="M210" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N210" t="s">
         <v>343</v>
@@ -27560,7 +27567,7 @@
         <v>332</v>
       </c>
       <c r="M211" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N211" t="s">
         <v>343</v>
@@ -27623,7 +27630,7 @@
         <v>332</v>
       </c>
       <c r="M212" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N212" t="s">
         <v>343</v>
@@ -27686,7 +27693,7 @@
         <v>332</v>
       </c>
       <c r="M213" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N213" t="s">
         <v>343</v>
@@ -27749,7 +27756,7 @@
         <v>332</v>
       </c>
       <c r="M214" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N214" t="s">
         <v>343</v>
@@ -27812,7 +27819,7 @@
         <v>332</v>
       </c>
       <c r="M215" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N215" t="s">
         <v>343</v>
@@ -27875,7 +27882,7 @@
         <v>332</v>
       </c>
       <c r="M216" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N216" t="s">
         <v>343</v>
@@ -27937,7 +27944,7 @@
         <v>332</v>
       </c>
       <c r="M217" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N217" t="s">
         <v>343</v>
@@ -27999,7 +28006,7 @@
         <v>332</v>
       </c>
       <c r="M218" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N218" t="s">
         <v>343</v>
@@ -28062,7 +28069,7 @@
         <v>332</v>
       </c>
       <c r="M219" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N219" t="s">
         <v>343</v>
@@ -28125,7 +28132,7 @@
         <v>332</v>
       </c>
       <c r="M220" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N220" t="s">
         <v>343</v>
@@ -28188,7 +28195,7 @@
         <v>332</v>
       </c>
       <c r="M221" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N221" t="s">
         <v>343</v>
@@ -28251,7 +28258,7 @@
         <v>332</v>
       </c>
       <c r="M222" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N222" t="s">
         <v>343</v>
@@ -28314,7 +28321,7 @@
         <v>332</v>
       </c>
       <c r="M223" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N223" t="s">
         <v>343</v>
@@ -28377,7 +28384,7 @@
         <v>332</v>
       </c>
       <c r="M224" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N224" t="s">
         <v>343</v>
@@ -28440,7 +28447,7 @@
         <v>332</v>
       </c>
       <c r="M225" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N225" t="s">
         <v>343</v>
@@ -28503,7 +28510,7 @@
         <v>332</v>
       </c>
       <c r="M226" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N226" t="s">
         <v>343</v>
@@ -28566,7 +28573,7 @@
         <v>332</v>
       </c>
       <c r="M227" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N227" t="s">
         <v>343</v>
@@ -28629,7 +28636,7 @@
         <v>332</v>
       </c>
       <c r="M228" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N228" t="s">
         <v>343</v>
@@ -28692,7 +28699,7 @@
         <v>332</v>
       </c>
       <c r="M229" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N229" t="s">
         <v>343</v>
@@ -28755,7 +28762,7 @@
         <v>332</v>
       </c>
       <c r="M230" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N230" t="s">
         <v>343</v>
@@ -28818,7 +28825,7 @@
         <v>332</v>
       </c>
       <c r="M231" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N231" t="s">
         <v>343</v>
@@ -28881,7 +28888,7 @@
         <v>332</v>
       </c>
       <c r="M232" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N232" t="s">
         <v>343</v>
@@ -28944,7 +28951,7 @@
         <v>332</v>
       </c>
       <c r="M233" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N233" t="s">
         <v>343</v>
@@ -29007,7 +29014,7 @@
         <v>332</v>
       </c>
       <c r="M234" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N234" t="s">
         <v>343</v>
@@ -29070,7 +29077,7 @@
         <v>332</v>
       </c>
       <c r="M235" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N235" t="s">
         <v>343</v>
@@ -29133,7 +29140,7 @@
         <v>332</v>
       </c>
       <c r="M236" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N236" t="s">
         <v>343</v>
@@ -29196,7 +29203,7 @@
         <v>332</v>
       </c>
       <c r="M237" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N237" t="s">
         <v>343</v>
@@ -29259,7 +29266,7 @@
         <v>332</v>
       </c>
       <c r="M238" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N238" t="s">
         <v>343</v>
@@ -29322,7 +29329,7 @@
         <v>332</v>
       </c>
       <c r="M239" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N239" t="s">
         <v>343</v>
@@ -29385,7 +29392,7 @@
         <v>332</v>
       </c>
       <c r="M240" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N240" t="s">
         <v>343</v>
@@ -29448,7 +29455,7 @@
         <v>332</v>
       </c>
       <c r="M241" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N241" t="s">
         <v>343</v>
@@ -29510,7 +29517,7 @@
         <v>332</v>
       </c>
       <c r="M242" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N242" t="s">
         <v>343</v>
@@ -29573,7 +29580,7 @@
         <v>332</v>
       </c>
       <c r="M243" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N243" t="s">
         <v>343</v>
@@ -29636,7 +29643,7 @@
         <v>332</v>
       </c>
       <c r="M244" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N244" t="s">
         <v>343</v>
@@ -29699,7 +29706,7 @@
         <v>332</v>
       </c>
       <c r="M245" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N245" t="s">
         <v>343</v>
@@ -29762,7 +29769,7 @@
         <v>332</v>
       </c>
       <c r="M246" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N246" t="s">
         <v>343</v>
@@ -29825,7 +29832,7 @@
         <v>332</v>
       </c>
       <c r="M247" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N247" t="s">
         <v>343</v>
@@ -29888,7 +29895,7 @@
         <v>332</v>
       </c>
       <c r="M248" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N248" t="s">
         <v>343</v>
@@ -29951,7 +29958,7 @@
         <v>332</v>
       </c>
       <c r="M249" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N249" t="s">
         <v>343</v>
@@ -30014,7 +30021,7 @@
         <v>332</v>
       </c>
       <c r="M250" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N250" t="s">
         <v>343</v>
@@ -30077,7 +30084,7 @@
         <v>332</v>
       </c>
       <c r="M251" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N251" t="s">
         <v>343</v>
@@ -30140,7 +30147,7 @@
         <v>332</v>
       </c>
       <c r="M252" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N252" t="s">
         <v>343</v>
@@ -30203,7 +30210,7 @@
         <v>332</v>
       </c>
       <c r="M253" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N253" t="s">
         <v>343</v>
@@ -30266,7 +30273,7 @@
         <v>332</v>
       </c>
       <c r="M254" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N254" t="s">
         <v>343</v>
@@ -30329,7 +30336,7 @@
         <v>332</v>
       </c>
       <c r="M255" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N255" t="s">
         <v>343</v>
@@ -30392,7 +30399,7 @@
         <v>332</v>
       </c>
       <c r="M256" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N256" t="s">
         <v>343</v>
@@ -30455,7 +30462,7 @@
         <v>332</v>
       </c>
       <c r="M257" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N257" t="s">
         <v>343</v>
@@ -30518,7 +30525,7 @@
         <v>332</v>
       </c>
       <c r="M258" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N258" t="s">
         <v>343</v>
@@ -30581,7 +30588,7 @@
         <v>332</v>
       </c>
       <c r="M259" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N259" t="s">
         <v>343</v>
@@ -30644,7 +30651,7 @@
         <v>332</v>
       </c>
       <c r="M260" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N260" t="s">
         <v>343</v>
@@ -30707,7 +30714,7 @@
         <v>332</v>
       </c>
       <c r="M261" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N261" t="s">
         <v>343</v>
@@ -30770,7 +30777,7 @@
         <v>332</v>
       </c>
       <c r="M262" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N262" t="s">
         <v>343</v>
@@ -30833,7 +30840,7 @@
         <v>332</v>
       </c>
       <c r="M263" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N263" t="s">
         <v>343</v>
@@ -30896,7 +30903,7 @@
         <v>332</v>
       </c>
       <c r="M264" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N264" t="s">
         <v>343</v>
@@ -30959,7 +30966,7 @@
         <v>332</v>
       </c>
       <c r="M265" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N265" t="s">
         <v>343</v>
@@ -31021,7 +31028,7 @@
         <v>332</v>
       </c>
       <c r="M266" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N266" t="s">
         <v>343</v>
@@ -31084,7 +31091,7 @@
         <v>332</v>
       </c>
       <c r="M267" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N267" t="s">
         <v>343</v>
@@ -31147,7 +31154,7 @@
         <v>332</v>
       </c>
       <c r="M268" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N268" t="s">
         <v>343</v>
@@ -31210,7 +31217,7 @@
         <v>332</v>
       </c>
       <c r="M269" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N269" t="s">
         <v>343</v>
@@ -31273,7 +31280,7 @@
         <v>332</v>
       </c>
       <c r="M270" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N270" t="s">
         <v>343</v>
@@ -31336,7 +31343,7 @@
         <v>332</v>
       </c>
       <c r="M271" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N271" t="s">
         <v>343</v>
@@ -31399,7 +31406,7 @@
         <v>332</v>
       </c>
       <c r="M272" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N272" t="s">
         <v>343</v>
@@ -31462,7 +31469,7 @@
         <v>332</v>
       </c>
       <c r="M273" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N273" t="s">
         <v>343</v>
@@ -31525,7 +31532,7 @@
         <v>332</v>
       </c>
       <c r="M274" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N274" t="s">
         <v>343</v>
@@ -31588,7 +31595,7 @@
         <v>332</v>
       </c>
       <c r="M275" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N275" t="s">
         <v>343</v>
@@ -31651,7 +31658,7 @@
         <v>332</v>
       </c>
       <c r="M276" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N276" t="s">
         <v>343</v>
@@ -31714,7 +31721,7 @@
         <v>332</v>
       </c>
       <c r="M277" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N277" t="s">
         <v>343</v>
@@ -31777,7 +31784,7 @@
         <v>332</v>
       </c>
       <c r="M278" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N278" t="s">
         <v>343</v>
@@ -31840,7 +31847,7 @@
         <v>332</v>
       </c>
       <c r="M279" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N279" t="s">
         <v>343</v>
@@ -31903,7 +31910,7 @@
         <v>332</v>
       </c>
       <c r="M280" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N280" t="s">
         <v>343</v>
@@ -31966,7 +31973,7 @@
         <v>332</v>
       </c>
       <c r="M281" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N281" t="s">
         <v>343</v>
@@ -32029,7 +32036,7 @@
         <v>332</v>
       </c>
       <c r="M282" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N282" t="s">
         <v>343</v>
@@ -32092,7 +32099,7 @@
         <v>332</v>
       </c>
       <c r="M283" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N283" t="s">
         <v>343</v>
@@ -32155,7 +32162,7 @@
         <v>332</v>
       </c>
       <c r="M284" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N284" t="s">
         <v>343</v>
@@ -32218,7 +32225,7 @@
         <v>332</v>
       </c>
       <c r="M285" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N285" t="s">
         <v>343</v>
@@ -32281,7 +32288,7 @@
         <v>332</v>
       </c>
       <c r="M286" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N286" t="s">
         <v>343</v>
@@ -32344,7 +32351,7 @@
         <v>332</v>
       </c>
       <c r="M287" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N287" t="s">
         <v>343</v>
@@ -32407,7 +32414,7 @@
         <v>332</v>
       </c>
       <c r="M288" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N288" t="s">
         <v>343</v>
@@ -32470,7 +32477,7 @@
         <v>332</v>
       </c>
       <c r="M289" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N289" t="s">
         <v>343</v>
@@ -32532,7 +32539,7 @@
         <v>332</v>
       </c>
       <c r="M290" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N290" t="s">
         <v>343</v>
@@ -32595,7 +32602,7 @@
         <v>332</v>
       </c>
       <c r="M291" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N291" t="s">
         <v>343</v>
@@ -32658,7 +32665,7 @@
         <v>332</v>
       </c>
       <c r="M292" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N292" t="s">
         <v>343</v>
@@ -32721,7 +32728,7 @@
         <v>332</v>
       </c>
       <c r="M293" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N293" t="s">
         <v>343</v>
@@ -32784,7 +32791,7 @@
         <v>332</v>
       </c>
       <c r="M294" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N294" t="s">
         <v>343</v>
@@ -32847,7 +32854,7 @@
         <v>332</v>
       </c>
       <c r="M295" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N295" t="s">
         <v>343</v>
@@ -32910,7 +32917,7 @@
         <v>332</v>
       </c>
       <c r="M296" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N296" t="s">
         <v>343</v>
@@ -32973,7 +32980,7 @@
         <v>332</v>
       </c>
       <c r="M297" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N297" t="s">
         <v>343</v>
@@ -33036,7 +33043,7 @@
         <v>332</v>
       </c>
       <c r="M298" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N298" t="s">
         <v>343</v>
@@ -33099,7 +33106,7 @@
         <v>332</v>
       </c>
       <c r="M299" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N299" t="s">
         <v>343</v>
@@ -33162,7 +33169,7 @@
         <v>332</v>
       </c>
       <c r="M300" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N300" t="s">
         <v>343</v>
@@ -33225,7 +33232,7 @@
         <v>332</v>
       </c>
       <c r="M301" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N301" t="s">
         <v>343</v>
@@ -33288,7 +33295,7 @@
         <v>332</v>
       </c>
       <c r="M302" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N302" t="s">
         <v>343</v>
@@ -33351,7 +33358,7 @@
         <v>332</v>
       </c>
       <c r="M303" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N303" t="s">
         <v>343</v>
@@ -33414,7 +33421,7 @@
         <v>332</v>
       </c>
       <c r="M304" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N304" t="s">
         <v>343</v>
@@ -33477,7 +33484,7 @@
         <v>332</v>
       </c>
       <c r="M305" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N305" t="s">
         <v>343</v>
@@ -33540,7 +33547,7 @@
         <v>332</v>
       </c>
       <c r="M306" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N306" t="s">
         <v>343</v>
@@ -33603,7 +33610,7 @@
         <v>332</v>
       </c>
       <c r="M307" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N307" t="s">
         <v>343</v>
@@ -33666,7 +33673,7 @@
         <v>332</v>
       </c>
       <c r="M308" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N308" t="s">
         <v>343</v>
@@ -33729,7 +33736,7 @@
         <v>332</v>
       </c>
       <c r="M309" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N309" t="s">
         <v>343</v>
@@ -33792,7 +33799,7 @@
         <v>332</v>
       </c>
       <c r="M310" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N310" t="s">
         <v>343</v>
@@ -33855,7 +33862,7 @@
         <v>332</v>
       </c>
       <c r="M311" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N311" t="s">
         <v>343</v>
@@ -33918,7 +33925,7 @@
         <v>332</v>
       </c>
       <c r="M312" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N312" t="s">
         <v>343</v>
@@ -33981,7 +33988,7 @@
         <v>332</v>
       </c>
       <c r="M313" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N313" t="s">
         <v>343</v>
@@ -34043,7 +34050,7 @@
         <v>332</v>
       </c>
       <c r="M314" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N314" t="s">
         <v>343</v>
@@ -34106,7 +34113,7 @@
         <v>332</v>
       </c>
       <c r="M315" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N315" t="s">
         <v>343</v>
@@ -34169,7 +34176,7 @@
         <v>332</v>
       </c>
       <c r="M316" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N316" t="s">
         <v>343</v>
@@ -34232,7 +34239,7 @@
         <v>332</v>
       </c>
       <c r="M317" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N317" t="s">
         <v>343</v>
@@ -34295,7 +34302,7 @@
         <v>332</v>
       </c>
       <c r="M318" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N318" t="s">
         <v>343</v>
@@ -34358,7 +34365,7 @@
         <v>332</v>
       </c>
       <c r="M319" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N319" t="s">
         <v>343</v>
@@ -34421,7 +34428,7 @@
         <v>332</v>
       </c>
       <c r="M320" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N320" t="s">
         <v>343</v>
@@ -34484,7 +34491,7 @@
         <v>332</v>
       </c>
       <c r="M321" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N321" t="s">
         <v>343</v>
@@ -34547,7 +34554,7 @@
         <v>332</v>
       </c>
       <c r="M322" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N322" t="s">
         <v>343</v>
@@ -34610,7 +34617,7 @@
         <v>332</v>
       </c>
       <c r="M323" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N323" t="s">
         <v>343</v>
@@ -34673,7 +34680,7 @@
         <v>332</v>
       </c>
       <c r="M324" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N324" t="s">
         <v>343</v>
@@ -34736,7 +34743,7 @@
         <v>332</v>
       </c>
       <c r="M325" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N325" t="s">
         <v>343</v>
@@ -34799,7 +34806,7 @@
         <v>332</v>
       </c>
       <c r="M326" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N326" t="s">
         <v>343</v>
@@ -34862,7 +34869,7 @@
         <v>332</v>
       </c>
       <c r="M327" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N327" t="s">
         <v>343</v>
@@ -34925,7 +34932,7 @@
         <v>332</v>
       </c>
       <c r="M328" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N328" t="s">
         <v>343</v>
@@ -34988,7 +34995,7 @@
         <v>332</v>
       </c>
       <c r="M329" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N329" t="s">
         <v>343</v>
@@ -35051,7 +35058,7 @@
         <v>332</v>
       </c>
       <c r="M330" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N330" t="s">
         <v>343</v>
@@ -35114,7 +35121,7 @@
         <v>332</v>
       </c>
       <c r="M331" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N331" t="s">
         <v>343</v>
@@ -35177,7 +35184,7 @@
         <v>332</v>
       </c>
       <c r="M332" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N332" t="s">
         <v>343</v>
@@ -35240,7 +35247,7 @@
         <v>332</v>
       </c>
       <c r="M333" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N333" t="s">
         <v>343</v>
@@ -35303,7 +35310,7 @@
         <v>332</v>
       </c>
       <c r="M334" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N334" t="s">
         <v>343</v>
@@ -35366,7 +35373,7 @@
         <v>332</v>
       </c>
       <c r="M335" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N335" t="s">
         <v>343</v>
@@ -35429,7 +35436,7 @@
         <v>332</v>
       </c>
       <c r="M336" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N336" t="s">
         <v>343</v>
@@ -35492,7 +35499,7 @@
         <v>332</v>
       </c>
       <c r="M337" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N337" t="s">
         <v>343</v>
@@ -61560,7 +61567,7 @@
     </row>
     <row r="898" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B898" t="s">
         <v>112</v>
@@ -61589,7 +61596,7 @@
     </row>
     <row r="899" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B899" t="s">
         <v>113</v>
@@ -61618,7 +61625,7 @@
     </row>
     <row r="900" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B900" t="s">
         <v>114</v>
@@ -61647,7 +61654,7 @@
     </row>
     <row r="901" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B901" t="s">
         <v>115</v>
@@ -61676,7 +61683,7 @@
     </row>
     <row r="902" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B902" t="s">
         <v>116</v>
@@ -61705,7 +61712,7 @@
     </row>
     <row r="903" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B903" t="s">
         <v>117</v>
@@ -61734,7 +61741,7 @@
     </row>
     <row r="904" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B904" t="s">
         <v>118</v>
@@ -61763,7 +61770,7 @@
     </row>
     <row r="905" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B905" t="s">
         <v>119</v>
@@ -61792,7 +61799,7 @@
     </row>
     <row r="906" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B906" t="s">
         <v>120</v>
@@ -61821,7 +61828,7 @@
     </row>
     <row r="907" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B907" t="s">
         <v>121</v>
@@ -61850,7 +61857,7 @@
     </row>
     <row r="908" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B908" t="s">
         <v>122</v>
@@ -61879,7 +61886,7 @@
     </row>
     <row r="909" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B909" t="s">
         <v>123</v>
@@ -61908,7 +61915,7 @@
     </row>
     <row r="910" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B910" t="s">
         <v>124</v>
@@ -61937,7 +61944,7 @@
     </row>
     <row r="911" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B911" t="s">
         <v>125</v>
@@ -61966,7 +61973,7 @@
     </row>
     <row r="912" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B912" t="s">
         <v>126</v>
@@ -61995,7 +62002,7 @@
     </row>
     <row r="913" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B913" t="s">
         <v>127</v>
@@ -62024,7 +62031,7 @@
     </row>
     <row r="914" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B914" t="s">
         <v>128</v>
@@ -62053,7 +62060,7 @@
     </row>
     <row r="915" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B915" t="s">
         <v>129</v>
@@ -62082,7 +62089,7 @@
     </row>
     <row r="916" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B916" t="s">
         <v>130</v>
@@ -62111,7 +62118,7 @@
     </row>
     <row r="917" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B917" t="s">
         <v>131</v>
@@ -62140,7 +62147,7 @@
     </row>
     <row r="918" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B918" t="s">
         <v>132</v>
@@ -62169,7 +62176,7 @@
     </row>
     <row r="919" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B919" t="s">
         <v>133</v>
@@ -62198,7 +62205,7 @@
     </row>
     <row r="920" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B920" t="s">
         <v>134</v>
@@ -62227,7 +62234,7 @@
     </row>
     <row r="921" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B921" t="s">
         <v>135</v>
@@ -62256,7 +62263,7 @@
     </row>
     <row r="922" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B922" t="s">
         <v>136</v>
@@ -62285,7 +62292,7 @@
     </row>
     <row r="923" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B923" t="s">
         <v>137</v>
@@ -62314,7 +62321,7 @@
     </row>
     <row r="924" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B924" t="s">
         <v>138</v>
@@ -62343,7 +62350,7 @@
     </row>
     <row r="925" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B925" t="s">
         <v>139</v>
@@ -62372,7 +62379,7 @@
     </row>
     <row r="926" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B926" t="s">
         <v>140</v>
@@ -62401,7 +62408,7 @@
     </row>
     <row r="927" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B927" t="s">
         <v>141</v>
@@ -62430,7 +62437,7 @@
     </row>
     <row r="928" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B928" t="s">
         <v>142</v>
@@ -62459,7 +62466,7 @@
     </row>
     <row r="929" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B929" t="s">
         <v>143</v>
@@ -62488,7 +62495,7 @@
     </row>
     <row r="930" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B930" t="s">
         <v>144</v>
@@ -62517,7 +62524,7 @@
     </row>
     <row r="931" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B931" t="s">
         <v>145</v>
@@ -62546,7 +62553,7 @@
     </row>
     <row r="932" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B932" t="s">
         <v>146</v>
@@ -62575,7 +62582,7 @@
     </row>
     <row r="933" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B933" t="s">
         <v>147</v>
@@ -62604,7 +62611,7 @@
     </row>
     <row r="934" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B934" t="s">
         <v>148</v>
@@ -62633,7 +62640,7 @@
     </row>
     <row r="935" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B935" t="s">
         <v>149</v>
@@ -62662,7 +62669,7 @@
     </row>
     <row r="936" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B936" t="s">
         <v>150</v>
@@ -62691,7 +62698,7 @@
     </row>
     <row r="937" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B937" t="s">
         <v>151</v>
@@ -62720,7 +62727,7 @@
     </row>
     <row r="938" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B938" t="s">
         <v>152</v>
@@ -62749,7 +62756,7 @@
     </row>
     <row r="939" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B939" t="s">
         <v>153</v>
@@ -62778,7 +62785,7 @@
     </row>
     <row r="940" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B940" t="s">
         <v>154</v>
@@ -62807,7 +62814,7 @@
     </row>
     <row r="941" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B941" t="s">
         <v>155</v>
@@ -62836,7 +62843,7 @@
     </row>
     <row r="942" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B942" t="s">
         <v>156</v>
@@ -62865,7 +62872,7 @@
     </row>
     <row r="943" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B943" t="s">
         <v>157</v>
@@ -62894,7 +62901,7 @@
     </row>
     <row r="944" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B944" t="s">
         <v>158</v>
@@ -62923,7 +62930,7 @@
     </row>
     <row r="945" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B945" t="s">
         <v>159</v>
@@ -62952,7 +62959,7 @@
     </row>
     <row r="946" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B946" t="s">
         <v>160</v>
@@ -62981,7 +62988,7 @@
     </row>
     <row r="947" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B947" t="s">
         <v>161</v>
@@ -63010,7 +63017,7 @@
     </row>
     <row r="948" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B948" s="3" t="s">
         <v>195</v>
@@ -63039,7 +63046,7 @@
     </row>
     <row r="949" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>197</v>
@@ -63068,7 +63075,7 @@
     </row>
     <row r="950" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B950" s="3" t="s">
         <v>199</v>
@@ -63097,7 +63104,7 @@
     </row>
     <row r="951" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B951" s="3" t="s">
         <v>201</v>
@@ -63126,7 +63133,7 @@
     </row>
     <row r="952" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B952" s="3" t="s">
         <v>203</v>
@@ -63155,7 +63162,7 @@
     </row>
     <row r="953" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B953" s="3" t="s">
         <v>205</v>
@@ -63184,7 +63191,7 @@
     </row>
     <row r="954" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B954" t="s">
         <v>112</v>
@@ -63213,7 +63220,7 @@
     </row>
     <row r="955" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B955" t="s">
         <v>113</v>
@@ -63242,7 +63249,7 @@
     </row>
     <row r="956" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B956" t="s">
         <v>114</v>
@@ -63271,7 +63278,7 @@
     </row>
     <row r="957" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B957" t="s">
         <v>115</v>
@@ -63300,7 +63307,7 @@
     </row>
     <row r="958" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B958" t="s">
         <v>116</v>
@@ -63329,7 +63336,7 @@
     </row>
     <row r="959" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B959" t="s">
         <v>117</v>
@@ -63358,7 +63365,7 @@
     </row>
     <row r="960" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B960" t="s">
         <v>118</v>
@@ -63387,7 +63394,7 @@
     </row>
     <row r="961" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B961" t="s">
         <v>119</v>
@@ -63416,7 +63423,7 @@
     </row>
     <row r="962" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B962" t="s">
         <v>120</v>
@@ -63445,7 +63452,7 @@
     </row>
     <row r="963" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B963" t="s">
         <v>121</v>
@@ -63474,7 +63481,7 @@
     </row>
     <row r="964" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B964" t="s">
         <v>122</v>
@@ -63503,7 +63510,7 @@
     </row>
     <row r="965" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B965" t="s">
         <v>123</v>
@@ -63532,7 +63539,7 @@
     </row>
     <row r="966" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B966" t="s">
         <v>124</v>
@@ -63561,7 +63568,7 @@
     </row>
     <row r="967" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B967" t="s">
         <v>125</v>
@@ -63590,7 +63597,7 @@
     </row>
     <row r="968" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B968" t="s">
         <v>126</v>
@@ -63619,7 +63626,7 @@
     </row>
     <row r="969" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B969" t="s">
         <v>127</v>
@@ -63648,7 +63655,7 @@
     </row>
     <row r="970" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B970" t="s">
         <v>128</v>
@@ -63677,7 +63684,7 @@
     </row>
     <row r="971" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B971" t="s">
         <v>129</v>
@@ -63706,7 +63713,7 @@
     </row>
     <row r="972" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B972" t="s">
         <v>130</v>
@@ -63735,7 +63742,7 @@
     </row>
     <row r="973" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B973" t="s">
         <v>131</v>
@@ -63764,7 +63771,7 @@
     </row>
     <row r="974" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B974" t="s">
         <v>132</v>
@@ -63793,7 +63800,7 @@
     </row>
     <row r="975" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B975" t="s">
         <v>133</v>
@@ -63822,7 +63829,7 @@
     </row>
     <row r="976" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B976" t="s">
         <v>134</v>
@@ -63851,7 +63858,7 @@
     </row>
     <row r="977" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B977" t="s">
         <v>135</v>
@@ -63880,7 +63887,7 @@
     </row>
     <row r="978" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B978" t="s">
         <v>136</v>
@@ -63909,7 +63916,7 @@
     </row>
     <row r="979" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B979" t="s">
         <v>137</v>
@@ -63938,7 +63945,7 @@
     </row>
     <row r="980" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B980" t="s">
         <v>138</v>
@@ -63967,7 +63974,7 @@
     </row>
     <row r="981" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B981" t="s">
         <v>139</v>
@@ -63996,7 +64003,7 @@
     </row>
     <row r="982" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B982" t="s">
         <v>140</v>
@@ -64025,7 +64032,7 @@
     </row>
     <row r="983" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B983" t="s">
         <v>141</v>
@@ -64054,7 +64061,7 @@
     </row>
     <row r="984" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B984" t="s">
         <v>142</v>
@@ -64083,7 +64090,7 @@
     </row>
     <row r="985" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B985" t="s">
         <v>143</v>
@@ -64112,7 +64119,7 @@
     </row>
     <row r="986" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B986" t="s">
         <v>144</v>
@@ -64141,7 +64148,7 @@
     </row>
     <row r="987" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B987" t="s">
         <v>145</v>
@@ -64170,7 +64177,7 @@
     </row>
     <row r="988" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B988" t="s">
         <v>146</v>
@@ -64199,7 +64206,7 @@
     </row>
     <row r="989" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B989" t="s">
         <v>147</v>
@@ -64228,7 +64235,7 @@
     </row>
     <row r="990" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B990" t="s">
         <v>148</v>
@@ -64257,7 +64264,7 @@
     </row>
     <row r="991" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B991" t="s">
         <v>149</v>
@@ -64286,7 +64293,7 @@
     </row>
     <row r="992" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B992" t="s">
         <v>150</v>
@@ -64315,7 +64322,7 @@
     </row>
     <row r="993" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B993" t="s">
         <v>151</v>
@@ -64344,7 +64351,7 @@
     </row>
     <row r="994" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B994" t="s">
         <v>152</v>
@@ -64373,7 +64380,7 @@
     </row>
     <row r="995" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B995" t="s">
         <v>153</v>
@@ -64402,7 +64409,7 @@
     </row>
     <row r="996" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B996" t="s">
         <v>154</v>
@@ -64431,7 +64438,7 @@
     </row>
     <row r="997" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B997" t="s">
         <v>155</v>
@@ -64460,7 +64467,7 @@
     </row>
     <row r="998" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B998" t="s">
         <v>156</v>
@@ -64489,7 +64496,7 @@
     </row>
     <row r="999" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B999" t="s">
         <v>157</v>
@@ -64518,7 +64525,7 @@
     </row>
     <row r="1000" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B1000" t="s">
         <v>158</v>
@@ -64547,7 +64554,7 @@
     </row>
     <row r="1001" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B1001" t="s">
         <v>159</v>
@@ -64576,7 +64583,7 @@
     </row>
     <row r="1002" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B1002" t="s">
         <v>160</v>
@@ -64605,7 +64612,7 @@
     </row>
     <row r="1003" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B1003" t="s">
         <v>161</v>
@@ -64634,7 +64641,7 @@
     </row>
     <row r="1004" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B1004" s="3" t="s">
         <v>195</v>
@@ -64663,7 +64670,7 @@
     </row>
     <row r="1005" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B1005" s="3" t="s">
         <v>197</v>
@@ -64692,7 +64699,7 @@
     </row>
     <row r="1006" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B1006" s="3" t="s">
         <v>199</v>
@@ -64721,7 +64728,7 @@
     </row>
     <row r="1007" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B1007" s="3" t="s">
         <v>201</v>
@@ -64750,7 +64757,7 @@
     </row>
     <row r="1008" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B1008" s="3" t="s">
         <v>203</v>
@@ -64779,7 +64786,7 @@
     </row>
     <row r="1009" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B1009" s="3" t="s">
         <v>205</v>
@@ -64808,7 +64815,7 @@
     </row>
     <row r="1010" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1010" t="s">
         <v>112</v>
@@ -64837,7 +64844,7 @@
     </row>
     <row r="1011" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1011" t="s">
         <v>113</v>
@@ -64866,7 +64873,7 @@
     </row>
     <row r="1012" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1012" t="s">
         <v>114</v>
@@ -64895,7 +64902,7 @@
     </row>
     <row r="1013" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1013" t="s">
         <v>115</v>
@@ -64924,7 +64931,7 @@
     </row>
     <row r="1014" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1014" t="s">
         <v>116</v>
@@ -64953,7 +64960,7 @@
     </row>
     <row r="1015" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1015" t="s">
         <v>117</v>
@@ -64982,7 +64989,7 @@
     </row>
     <row r="1016" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1016" t="s">
         <v>118</v>
@@ -65011,7 +65018,7 @@
     </row>
     <row r="1017" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1017" t="s">
         <v>119</v>
@@ -65040,7 +65047,7 @@
     </row>
     <row r="1018" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1018" t="s">
         <v>120</v>
@@ -65069,7 +65076,7 @@
     </row>
     <row r="1019" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1019" t="s">
         <v>121</v>
@@ -65098,7 +65105,7 @@
     </row>
     <row r="1020" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1020" t="s">
         <v>122</v>
@@ -65127,7 +65134,7 @@
     </row>
     <row r="1021" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1021" t="s">
         <v>123</v>
@@ -65156,7 +65163,7 @@
     </row>
     <row r="1022" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1022" t="s">
         <v>124</v>
@@ -65185,7 +65192,7 @@
     </row>
     <row r="1023" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1023" t="s">
         <v>125</v>
@@ -65214,7 +65221,7 @@
     </row>
     <row r="1024" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1024" t="s">
         <v>126</v>
@@ -65243,7 +65250,7 @@
     </row>
     <row r="1025" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1025" t="s">
         <v>127</v>
@@ -65272,7 +65279,7 @@
     </row>
     <row r="1026" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1026" t="s">
         <v>128</v>
@@ -65301,7 +65308,7 @@
     </row>
     <row r="1027" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1027" t="s">
         <v>129</v>
@@ -65330,7 +65337,7 @@
     </row>
     <row r="1028" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1028" t="s">
         <v>130</v>
@@ -65359,7 +65366,7 @@
     </row>
     <row r="1029" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1029" t="s">
         <v>131</v>
@@ -65388,7 +65395,7 @@
     </row>
     <row r="1030" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1030" t="s">
         <v>132</v>
@@ -65417,7 +65424,7 @@
     </row>
     <row r="1031" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1031" t="s">
         <v>133</v>
@@ -65446,7 +65453,7 @@
     </row>
     <row r="1032" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1032" t="s">
         <v>134</v>
@@ -65475,7 +65482,7 @@
     </row>
     <row r="1033" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1033" t="s">
         <v>135</v>
@@ -65504,7 +65511,7 @@
     </row>
     <row r="1034" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1034" t="s">
         <v>136</v>
@@ -65533,7 +65540,7 @@
     </row>
     <row r="1035" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1035" t="s">
         <v>137</v>
@@ -65562,7 +65569,7 @@
     </row>
     <row r="1036" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1036" t="s">
         <v>138</v>
@@ -65591,7 +65598,7 @@
     </row>
     <row r="1037" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1037" t="s">
         <v>139</v>
@@ -65620,7 +65627,7 @@
     </row>
     <row r="1038" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1038" t="s">
         <v>140</v>
@@ -65649,7 +65656,7 @@
     </row>
     <row r="1039" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1039" t="s">
         <v>141</v>
@@ -65678,7 +65685,7 @@
     </row>
     <row r="1040" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1040" t="s">
         <v>142</v>
@@ -65707,7 +65714,7 @@
     </row>
     <row r="1041" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1041" t="s">
         <v>143</v>
@@ -65736,7 +65743,7 @@
     </row>
     <row r="1042" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1042" t="s">
         <v>144</v>
@@ -65765,7 +65772,7 @@
     </row>
     <row r="1043" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1043" t="s">
         <v>145</v>
@@ -65794,7 +65801,7 @@
     </row>
     <row r="1044" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1044" t="s">
         <v>146</v>
@@ -65823,7 +65830,7 @@
     </row>
     <row r="1045" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1045" t="s">
         <v>147</v>
@@ -65852,7 +65859,7 @@
     </row>
     <row r="1046" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1046" t="s">
         <v>148</v>
@@ -65881,7 +65888,7 @@
     </row>
     <row r="1047" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1047" t="s">
         <v>149</v>
@@ -65910,7 +65917,7 @@
     </row>
     <row r="1048" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1048" t="s">
         <v>150</v>
@@ -65939,7 +65946,7 @@
     </row>
     <row r="1049" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1049" t="s">
         <v>151</v>
@@ -65968,7 +65975,7 @@
     </row>
     <row r="1050" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1050" t="s">
         <v>152</v>
@@ -65997,7 +66004,7 @@
     </row>
     <row r="1051" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1051" t="s">
         <v>153</v>
@@ -66026,7 +66033,7 @@
     </row>
     <row r="1052" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1052" t="s">
         <v>154</v>
@@ -66055,7 +66062,7 @@
     </row>
     <row r="1053" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1053" t="s">
         <v>155</v>
@@ -66084,7 +66091,7 @@
     </row>
     <row r="1054" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1054" t="s">
         <v>156</v>
@@ -66113,7 +66120,7 @@
     </row>
     <row r="1055" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1055" t="s">
         <v>157</v>
@@ -66142,7 +66149,7 @@
     </row>
     <row r="1056" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1056" t="s">
         <v>158</v>
@@ -66171,7 +66178,7 @@
     </row>
     <row r="1057" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1057" t="s">
         <v>159</v>
@@ -66200,7 +66207,7 @@
     </row>
     <row r="1058" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1058" t="s">
         <v>160</v>
@@ -66229,7 +66236,7 @@
     </row>
     <row r="1059" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1059" t="s">
         <v>161</v>
@@ -66258,7 +66265,7 @@
     </row>
     <row r="1060" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1060" s="3" t="s">
         <v>195</v>
@@ -66287,7 +66294,7 @@
     </row>
     <row r="1061" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1061" s="3" t="s">
         <v>197</v>
@@ -66316,7 +66323,7 @@
     </row>
     <row r="1062" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1062" s="3" t="s">
         <v>199</v>
@@ -66345,7 +66352,7 @@
     </row>
     <row r="1063" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1063" s="3" t="s">
         <v>201</v>
@@ -66374,7 +66381,7 @@
     </row>
     <row r="1064" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1064" s="3" t="s">
         <v>203</v>
@@ -66403,7 +66410,7 @@
     </row>
     <row r="1065" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1065" s="3" t="s">
         <v>205</v>
@@ -66432,7 +66439,7 @@
     </row>
     <row r="1066" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1066" t="s">
         <v>112</v>
@@ -66461,7 +66468,7 @@
     </row>
     <row r="1067" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1067" t="s">
         <v>113</v>
@@ -66490,7 +66497,7 @@
     </row>
     <row r="1068" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1068" t="s">
         <v>114</v>
@@ -66519,7 +66526,7 @@
     </row>
     <row r="1069" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1069" t="s">
         <v>115</v>
@@ -66548,7 +66555,7 @@
     </row>
     <row r="1070" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1070" t="s">
         <v>116</v>
@@ -66577,7 +66584,7 @@
     </row>
     <row r="1071" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1071" t="s">
         <v>117</v>
@@ -66606,7 +66613,7 @@
     </row>
     <row r="1072" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1072" t="s">
         <v>118</v>
@@ -66635,7 +66642,7 @@
     </row>
     <row r="1073" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1073" t="s">
         <v>119</v>
@@ -66664,7 +66671,7 @@
     </row>
     <row r="1074" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1074" t="s">
         <v>120</v>
@@ -66693,7 +66700,7 @@
     </row>
     <row r="1075" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1075" t="s">
         <v>121</v>
@@ -66722,7 +66729,7 @@
     </row>
     <row r="1076" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1076" t="s">
         <v>122</v>
@@ -66751,7 +66758,7 @@
     </row>
     <row r="1077" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1077" t="s">
         <v>123</v>
@@ -66780,7 +66787,7 @@
     </row>
     <row r="1078" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1078" t="s">
         <v>124</v>
@@ -66809,7 +66816,7 @@
     </row>
     <row r="1079" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1079" t="s">
         <v>125</v>
@@ -66838,7 +66845,7 @@
     </row>
     <row r="1080" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1080" t="s">
         <v>126</v>
@@ -66867,7 +66874,7 @@
     </row>
     <row r="1081" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1081" t="s">
         <v>127</v>
@@ -66896,7 +66903,7 @@
     </row>
     <row r="1082" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1082" t="s">
         <v>128</v>
@@ -66925,7 +66932,7 @@
     </row>
     <row r="1083" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1083" t="s">
         <v>129</v>
@@ -66954,7 +66961,7 @@
     </row>
     <row r="1084" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1084" t="s">
         <v>130</v>
@@ -66983,7 +66990,7 @@
     </row>
     <row r="1085" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1085" t="s">
         <v>131</v>
@@ -67012,7 +67019,7 @@
     </row>
     <row r="1086" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1086" t="s">
         <v>132</v>
@@ -67041,7 +67048,7 @@
     </row>
     <row r="1087" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1087" t="s">
         <v>133</v>
@@ -67070,7 +67077,7 @@
     </row>
     <row r="1088" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1088" t="s">
         <v>134</v>
@@ -67099,7 +67106,7 @@
     </row>
     <row r="1089" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1089" t="s">
         <v>135</v>
@@ -67128,7 +67135,7 @@
     </row>
     <row r="1090" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1090" t="s">
         <v>136</v>
@@ -67157,7 +67164,7 @@
     </row>
     <row r="1091" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1091" t="s">
         <v>137</v>
@@ -67186,7 +67193,7 @@
     </row>
     <row r="1092" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1092" t="s">
         <v>138</v>
@@ -67215,7 +67222,7 @@
     </row>
     <row r="1093" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1093" t="s">
         <v>139</v>
@@ -67244,7 +67251,7 @@
     </row>
     <row r="1094" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1094" t="s">
         <v>140</v>
@@ -67273,7 +67280,7 @@
     </row>
     <row r="1095" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1095" t="s">
         <v>141</v>
@@ -67302,7 +67309,7 @@
     </row>
     <row r="1096" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1096" t="s">
         <v>142</v>
@@ -67331,7 +67338,7 @@
     </row>
     <row r="1097" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1097" t="s">
         <v>143</v>
@@ -67360,7 +67367,7 @@
     </row>
     <row r="1098" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1098" t="s">
         <v>144</v>
@@ -67389,7 +67396,7 @@
     </row>
     <row r="1099" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1099" t="s">
         <v>145</v>
@@ -67418,7 +67425,7 @@
     </row>
     <row r="1100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1100" t="s">
         <v>146</v>
@@ -67447,7 +67454,7 @@
     </row>
     <row r="1101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1101" t="s">
         <v>147</v>
@@ -67476,7 +67483,7 @@
     </row>
     <row r="1102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1102" t="s">
         <v>148</v>
@@ -67505,7 +67512,7 @@
     </row>
     <row r="1103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1103" t="s">
         <v>149</v>
@@ -67534,7 +67541,7 @@
     </row>
     <row r="1104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1104" t="s">
         <v>150</v>
@@ -67563,7 +67570,7 @@
     </row>
     <row r="1105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1105" t="s">
         <v>151</v>
@@ -67592,7 +67599,7 @@
     </row>
     <row r="1106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1106" t="s">
         <v>152</v>
@@ -67621,7 +67628,7 @@
     </row>
     <row r="1107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1107" t="s">
         <v>153</v>
@@ -67650,7 +67657,7 @@
     </row>
     <row r="1108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1108" t="s">
         <v>154</v>
@@ -67679,7 +67686,7 @@
     </row>
     <row r="1109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1109" t="s">
         <v>155</v>
@@ -67708,7 +67715,7 @@
     </row>
     <row r="1110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1110" t="s">
         <v>156</v>
@@ -67737,7 +67744,7 @@
     </row>
     <row r="1111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1111" t="s">
         <v>157</v>
@@ -67766,7 +67773,7 @@
     </row>
     <row r="1112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1112" t="s">
         <v>158</v>
@@ -67795,7 +67802,7 @@
     </row>
     <row r="1113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1113" t="s">
         <v>159</v>
@@ -67824,7 +67831,7 @@
     </row>
     <row r="1114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1114" t="s">
         <v>160</v>
@@ -67853,7 +67860,7 @@
     </row>
     <row r="1115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1115" t="s">
         <v>161</v>
@@ -67882,7 +67889,7 @@
     </row>
     <row r="1116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1116" s="3" t="s">
         <v>195</v>
@@ -67911,7 +67918,7 @@
     </row>
     <row r="1117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1117" s="3" t="s">
         <v>197</v>
@@ -67940,7 +67947,7 @@
     </row>
     <row r="1118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1118" s="3" t="s">
         <v>199</v>
@@ -67969,7 +67976,7 @@
     </row>
     <row r="1119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1119" s="3" t="s">
         <v>201</v>
@@ -67998,7 +68005,7 @@
     </row>
     <row r="1120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1120" s="3" t="s">
         <v>203</v>
@@ -68027,7 +68034,7 @@
     </row>
     <row r="1121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1121" s="3" t="s">
         <v>205</v>
@@ -69726,7 +69733,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B82" t="s">
         <v>107</v>
@@ -69746,7 +69753,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B83" t="s">
         <v>108</v>
@@ -69766,7 +69773,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B84" t="s">
         <v>109</v>
@@ -69786,7 +69793,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B85" t="s">
         <v>110</v>
@@ -69806,7 +69813,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B86" t="s">
         <v>111</v>
@@ -69826,7 +69833,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B87" t="s">
         <v>107</v>
@@ -69846,7 +69853,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B88" t="s">
         <v>108</v>
@@ -69866,7 +69873,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B89" t="s">
         <v>109</v>
@@ -69886,7 +69893,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B90" t="s">
         <v>110</v>
@@ -69906,7 +69913,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B91" t="s">
         <v>111</v>
@@ -69926,7 +69933,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B92" t="s">
         <v>107</v>
@@ -69946,7 +69953,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B93" t="s">
         <v>108</v>
@@ -69966,7 +69973,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B94" t="s">
         <v>109</v>
@@ -69986,7 +69993,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B95" t="s">
         <v>110</v>
@@ -70006,7 +70013,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B96" t="s">
         <v>111</v>
@@ -70026,7 +70033,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B97" t="s">
         <v>107</v>
@@ -70046,7 +70053,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B98" t="s">
         <v>108</v>
@@ -70066,7 +70073,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B99" t="s">
         <v>109</v>
@@ -70086,7 +70093,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B100" t="s">
         <v>110</v>
@@ -70106,7 +70113,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B101" t="s">
         <v>111</v>
@@ -70221,16 +70228,16 @@
         <v>84</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -71275,7 +71282,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B18" s="7">
         <v>0</v>
@@ -71340,7 +71347,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B19" s="7">
         <v>0</v>
@@ -71405,7 +71412,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B20" s="7">
         <v>0</v>
@@ -71470,7 +71477,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B21" s="7">
         <v>0</v>
@@ -71730,16 +71737,16 @@
         <v>84</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -72784,7 +72791,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B18" s="7">
         <v>0</v>
@@ -72849,7 +72856,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B19" s="7">
         <v>0</v>
@@ -72914,7 +72921,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B20" s="7">
         <v>0</v>
@@ -72979,7 +72986,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B21" s="7">
         <v>0</v>
@@ -73536,8 +73543,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data_sets/Power/ODO_INPUT_NREL.xlsx
+++ b/data_sets/Power/ODO_INPUT_NREL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hlh/Dropbox/Work/Collaborations/Harsha/Networked_Microgrid/ODO/data_sets/Power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FC8D16-CDD3-194C-A384-76C0F1C94EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC23958-B3D5-6147-AC5F-899020A4CD19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9640" yWindow="2120" windowWidth="41240" windowHeight="21420" tabRatio="938" firstSheet="5" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9640" yWindow="2120" windowWidth="41240" windowHeight="21420" tabRatio="938" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RunSettings" sheetId="107" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9892" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9892" uniqueCount="710">
   <si>
     <t>January</t>
   </si>
@@ -1135,12 +1135,6 @@
   </si>
   <si>
     <t>nb hours (should be less than 288 hours = 12 days)</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>1e-5,0,0,0,1e-5,0,0,0,1e-5</t>
   </si>
   <si>
     <t>Number of hours of fuel availability during resiliency scenarios</t>
@@ -2811,47 +2805,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="71">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="67">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3531,8 +3485,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="70"/>
-      <tableStyleElement type="headerRow" dxfId="69"/>
+      <tableStyleElement type="wholeTable" dxfId="66"/>
+      <tableStyleElement type="headerRow" dxfId="65"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3899,12 +3853,12 @@
         <v>292</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -3920,8 +3874,8 @@
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:H338"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3993,10 +3947,10 @@
         <v>8500</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="F3">
         <v>2.5</v>
@@ -4026,7 +3980,7 @@
         <v>40.5299888971117</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -4050,7 +4004,7 @@
         <v>51.545832033249795</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -4074,7 +4028,7 @@
         <v>57.157676649772895</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -4098,7 +4052,7 @@
         <v>64.432290041562197</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -4122,7 +4076,7 @@
         <v>71.914749530259797</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -4146,7 +4100,7 @@
         <v>82.099208278764806</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -4170,7 +4124,7 @@
         <v>92.491513124177999</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -4194,7 +4148,7 @@
         <v>104.962278938674</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -4218,7 +4172,7 @@
         <v>117.43304475317001</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H12" s="4"/>
     </row>
@@ -4242,7 +4196,7 @@
         <v>22.447378466092598</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H13" s="4"/>
     </row>
@@ -4266,7 +4220,7 @@
         <v>26.3964543073497</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H14" s="4"/>
     </row>
@@ -4290,7 +4244,7 @@
         <v>30.761222342423299</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -4314,7 +4268,7 @@
         <v>36.996605249671205</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -4338,7 +4292,7 @@
         <v>43.647680350735698</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -4362,7 +4316,7 @@
         <v>49.467371064167097</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H18" s="4"/>
     </row>
@@ -4386,7 +4340,7 @@
         <v>55.079215680690297</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H19" s="4"/>
     </row>
@@ -4410,7 +4364,7 @@
         <v>61.938136878663002</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H20" s="4"/>
     </row>
@@ -4434,7 +4388,7 @@
         <v>70.875519045718406</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H21" s="4"/>
     </row>
@@ -4458,7 +4412,7 @@
         <v>79.605055115865596</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H22" s="4"/>
     </row>
@@ -4482,7 +4436,7 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H23" s="4"/>
     </row>
@@ -4506,7 +4460,7 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H24" s="4"/>
     </row>
@@ -4530,7 +4484,7 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H25" s="4"/>
     </row>
@@ -4554,7 +4508,7 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H26" s="4"/>
     </row>
@@ -4578,7 +4532,7 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H27" s="4"/>
     </row>
@@ -4602,7 +4556,7 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H28" s="4"/>
     </row>
@@ -4626,7 +4580,7 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H29" s="4"/>
     </row>
@@ -4650,7 +4604,7 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H30" s="4"/>
     </row>
@@ -4674,1603 +4628,1603 @@
         <v>90.4130521550954</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E32" s="4"/>
       <c r="G32" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E33" s="4"/>
       <c r="G33" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E34" s="4"/>
       <c r="G34" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E35" s="4"/>
       <c r="G35" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E36" s="4"/>
       <c r="G36" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E37" s="4"/>
       <c r="G37" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E38" s="4"/>
       <c r="G38" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E39" s="4"/>
       <c r="G39" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E40" s="4"/>
       <c r="G40" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E41" s="4"/>
       <c r="G41" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E42" s="4"/>
       <c r="G42" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E43" s="4"/>
       <c r="G43" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E44" s="4"/>
       <c r="G44" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E45" s="4"/>
       <c r="G45" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E46" s="4"/>
       <c r="G46" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E47" s="4"/>
       <c r="G47" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E48" s="4"/>
       <c r="G48" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E49" s="4"/>
       <c r="G49" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E50" s="4"/>
       <c r="G50" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E51" s="4"/>
       <c r="G51" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E52" s="4"/>
       <c r="G52" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E53" s="4"/>
       <c r="G53" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E54" s="4"/>
       <c r="G54" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E55" s="4"/>
       <c r="G55" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E56" s="4"/>
       <c r="G56" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E57" s="4"/>
       <c r="G57" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H57" s="4"/>
     </row>
     <row r="58" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E58" s="4"/>
       <c r="G58" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E59" s="4"/>
       <c r="G59" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H59" s="4"/>
     </row>
     <row r="60" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E60" s="4"/>
       <c r="G60" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E61" s="4"/>
       <c r="G61" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G62" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G63" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G64" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G65" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G66" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G67" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="68" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G68" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G69" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="70" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G70" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="71" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G71" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G72" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G73" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G74" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G75" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="76" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G76" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G77" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="78" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G78" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="79" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G79" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="80" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G80" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G81" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G82" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G83" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="84" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G84" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="85" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G85" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G86" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="87" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G87" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="88" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G88" s="12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G89" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G90" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="91" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G91" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="92" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G92" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="93" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G93" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="94" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G94" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="95" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G95" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="96" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G96" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="97" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G97" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="98" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G98" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="99" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G99" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="100" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G100" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G101" s="12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="102" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G102" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="103" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G103" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="104" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G104" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="105" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G105" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="106" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G106" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="107" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G107" s="12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="108" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G108" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="109" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G109" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="110" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G110" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="111" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G111" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="112" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G112" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="113" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G113" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="114" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G114" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="115" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G115" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="116" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G116" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="117" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G117" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="118" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G118" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="119" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G119" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="120" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G120" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="121" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G121" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="122" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G122" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="123" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G123" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="124" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G124" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="125" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G125" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="126" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G126" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="127" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G127" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="128" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G128" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="129" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G129" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="130" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G130" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="131" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G131" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="132" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G132" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="133" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G133" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="134" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G134" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="135" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G135" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="136" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G136" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="137" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G137" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="138" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G138" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="139" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G139" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="140" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G140" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="141" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G141" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="142" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G142" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="143" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G143" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="144" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G144" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="145" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G145" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="146" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G146" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="147" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G147" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="148" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G148" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="149" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G149" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="150" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G150" s="12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="151" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G151" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="152" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G152" s="12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="153" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G153" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G154" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="155" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G155" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="156" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G156" s="12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="157" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G157" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="158" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G158" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="159" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G159" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="160" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G160" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="161" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G161" s="12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="162" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G162" s="12" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="163" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G163" s="12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="164" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G164" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="165" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G165" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="166" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G166" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="167" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G167" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="168" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G168" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="169" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G169" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="170" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G170" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="171" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G171" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="172" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G172" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="173" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G173" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="174" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G174" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="175" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G175" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="176" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G176" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="177" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G177" s="12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="178" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G178" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="179" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G179" s="12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="180" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G180" s="12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="181" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G181" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="182" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G182" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="183" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G183" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="184" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G184" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="185" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G185" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="186" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G186" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="187" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G187" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="188" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G188" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="189" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G189" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="190" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G190" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="191" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G191" s="12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="192" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G192" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="193" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G193" s="12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="194" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G194" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="195" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G195" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="196" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G196" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="197" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G197" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="198" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G198" s="12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="199" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G199" s="12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="200" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G200" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="201" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G201" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="202" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G202" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="203" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G203" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="204" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G204" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="205" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G205" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="206" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G206" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="207" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G207" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="208" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G208" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="209" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G209" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="210" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G210" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="211" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G211" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="212" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G212" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="213" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G213" s="12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="214" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G214" s="12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="215" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G215" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="216" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G216" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="217" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G217" s="12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="218" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G218" s="12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="219" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G219" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="220" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G220" s="12" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="221" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G221" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="222" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G222" s="12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="223" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G223" s="12" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="224" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G224" s="12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="225" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G225" s="12" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="226" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G226" s="12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="227" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G227" s="12" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="228" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G228" s="12" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="229" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G229" s="12" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="230" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G230" s="12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="231" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G231" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="232" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G232" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="233" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G233" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="234" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G234" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="235" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G235" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="236" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G236" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="237" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G237" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="238" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G238" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="239" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G239" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="240" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G240" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="241" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G241" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="242" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G242" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="243" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G243" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="244" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G244" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="245" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G245" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="246" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G246" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="247" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G247" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="248" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G248" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="249" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G249" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="250" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G250" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="251" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G251" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="252" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G252" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="253" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G253" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="254" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G254" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="255" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G255" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="256" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G256" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="257" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G257" s="12" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="258" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G258" s="12" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="259" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G259" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="260" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G260" s="12" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="261" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G261" s="12" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="262" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G262" s="12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="263" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G263" s="12" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="264" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G264" s="12" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="265" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G265" s="12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="266" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G266" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="267" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G267" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="268" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G268" s="12" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="269" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G269" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="270" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G270" s="12" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="271" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G271" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="272" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G272" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="273" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G273" s="12" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="274" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G274" s="12" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="275" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G275" s="12" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="276" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G276" s="12" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="277" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G277" s="12" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="278" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G278" s="12" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="279" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G279" s="12" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="280" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G280" s="12" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="281" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G281" s="12" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="282" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G282" s="12" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="283" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G283" s="12" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="284" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G284" s="12" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="285" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G285" s="12" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="286" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G286" s="12" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="287" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G287" s="12" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="288" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G288" s="12" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="289" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G289" s="12" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="290" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G290" s="12" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="291" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G291" s="12" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="292" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G292" s="12" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="293" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G293" s="12" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="294" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G294" s="12" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="295" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G295" s="12" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="296" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G296" s="12" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="297" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G297" s="12" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="298" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G298" s="12" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="299" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G299" s="12" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="300" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G300" s="12" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="301" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G301" s="12" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="302" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G302" s="12" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="303" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G303" s="12" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="304" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G304" s="12" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="305" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G305" s="12" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="306" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G306" s="12" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="307" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G307" s="12" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="308" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G308" s="12" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="309" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G309" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="310" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G310" s="12" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="311" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G311" s="12" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="312" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G312" s="12" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="313" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G313" s="12" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="314" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G314" s="12" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="315" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G315" s="12" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="316" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G316" s="12" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="317" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G317" s="12" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="318" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G318" s="12" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="319" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G319" s="12" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="320" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G320" s="12" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="321" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G321" s="12" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="322" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G322" s="12" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="323" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G323" s="12" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="324" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G324" s="12" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="325" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G325" s="12" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="326" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G326" s="12" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="327" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G327" s="12" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="328" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G328" s="12" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="329" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G329" s="12" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="330" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G330" s="12" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="331" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G331" s="12" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="332" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G332" s="12" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="333" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G333" s="12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="334" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G334" s="12" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="335" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G335" s="12" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="336" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G336" s="12" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="337" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G337" s="12" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="338" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G338" s="12" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -7554,7 +7508,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E13">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12347,7 +12301,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -12367,7 +12321,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12387,7 +12341,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12407,7 +12361,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -12721,7 +12675,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -12738,7 +12692,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -12755,7 +12709,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -12772,7 +12726,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -12790,17 +12744,17 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="XFD5">
-    <cfRule type="cellIs" dxfId="68" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:E44">
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D22">
-    <cfRule type="cellIs" dxfId="66" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12868,16 +12822,16 @@
         <v>291</v>
       </c>
       <c r="R1" t="s">
+        <v>366</v>
+      </c>
+      <c r="S1" t="s">
+        <v>367</v>
+      </c>
+      <c r="T1" t="s">
         <v>368</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>369</v>
-      </c>
-      <c r="T1" t="s">
-        <v>370</v>
-      </c>
-      <c r="U1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -13922,7 +13876,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -13987,7 +13941,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -14052,7 +14006,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -14117,7 +14071,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -14191,7 +14145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937DF613-129E-417F-876D-4B00A3A21EFA}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -14238,7 +14192,7 @@
         <v>352</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -14255,16 +14209,16 @@
         <v>352</v>
       </c>
       <c r="E3" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>373</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -14405,7 +14359,7 @@
         <v>332</v>
       </c>
       <c r="M2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N2" t="s">
         <v>343</v>
@@ -14467,7 +14421,7 @@
         <v>332</v>
       </c>
       <c r="M3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N3" t="s">
         <v>343</v>
@@ -14529,7 +14483,7 @@
         <v>332</v>
       </c>
       <c r="M4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N4" t="s">
         <v>343</v>
@@ -14592,7 +14546,7 @@
         <v>332</v>
       </c>
       <c r="M5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N5" t="s">
         <v>343</v>
@@ -14655,7 +14609,7 @@
         <v>332</v>
       </c>
       <c r="M6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N6" t="s">
         <v>343</v>
@@ -14718,7 +14672,7 @@
         <v>332</v>
       </c>
       <c r="M7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N7" t="s">
         <v>343</v>
@@ -14781,7 +14735,7 @@
         <v>332</v>
       </c>
       <c r="M8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N8" t="s">
         <v>343</v>
@@ -14844,7 +14798,7 @@
         <v>332</v>
       </c>
       <c r="M9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N9" t="s">
         <v>343</v>
@@ -14907,7 +14861,7 @@
         <v>332</v>
       </c>
       <c r="M10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N10" t="s">
         <v>343</v>
@@ -14970,7 +14924,7 @@
         <v>332</v>
       </c>
       <c r="M11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N11" t="s">
         <v>343</v>
@@ -15033,7 +14987,7 @@
         <v>332</v>
       </c>
       <c r="M12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N12" t="s">
         <v>343</v>
@@ -15096,7 +15050,7 @@
         <v>332</v>
       </c>
       <c r="M13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N13" t="s">
         <v>343</v>
@@ -15159,7 +15113,7 @@
         <v>332</v>
       </c>
       <c r="M14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N14" t="s">
         <v>343</v>
@@ -15222,7 +15176,7 @@
         <v>332</v>
       </c>
       <c r="M15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N15" t="s">
         <v>343</v>
@@ -15285,7 +15239,7 @@
         <v>332</v>
       </c>
       <c r="M16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N16" t="s">
         <v>343</v>
@@ -15348,7 +15302,7 @@
         <v>332</v>
       </c>
       <c r="M17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N17" t="s">
         <v>343</v>
@@ -15411,7 +15365,7 @@
         <v>332</v>
       </c>
       <c r="M18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N18" t="s">
         <v>343</v>
@@ -15474,7 +15428,7 @@
         <v>332</v>
       </c>
       <c r="M19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N19" t="s">
         <v>343</v>
@@ -15537,7 +15491,7 @@
         <v>332</v>
       </c>
       <c r="M20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N20" t="s">
         <v>343</v>
@@ -15600,7 +15554,7 @@
         <v>332</v>
       </c>
       <c r="M21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N21" t="s">
         <v>343</v>
@@ -15663,7 +15617,7 @@
         <v>332</v>
       </c>
       <c r="M22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N22" t="s">
         <v>343</v>
@@ -15726,7 +15680,7 @@
         <v>332</v>
       </c>
       <c r="M23" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N23" t="s">
         <v>343</v>
@@ -15789,7 +15743,7 @@
         <v>332</v>
       </c>
       <c r="M24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N24" t="s">
         <v>343</v>
@@ -15852,7 +15806,7 @@
         <v>332</v>
       </c>
       <c r="M25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N25" t="s">
         <v>343</v>
@@ -15915,7 +15869,7 @@
         <v>332</v>
       </c>
       <c r="M26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N26" t="s">
         <v>343</v>
@@ -15978,7 +15932,7 @@
         <v>332</v>
       </c>
       <c r="M27" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N27" t="s">
         <v>343</v>
@@ -16041,7 +15995,7 @@
         <v>332</v>
       </c>
       <c r="M28" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N28" t="s">
         <v>343</v>
@@ -16104,7 +16058,7 @@
         <v>332</v>
       </c>
       <c r="M29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N29" t="s">
         <v>343</v>
@@ -16167,7 +16121,7 @@
         <v>332</v>
       </c>
       <c r="M30" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N30" t="s">
         <v>343</v>
@@ -16230,7 +16184,7 @@
         <v>332</v>
       </c>
       <c r="M31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N31" t="s">
         <v>343</v>
@@ -16293,7 +16247,7 @@
         <v>332</v>
       </c>
       <c r="M32" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N32" t="s">
         <v>343</v>
@@ -16356,7 +16310,7 @@
         <v>332</v>
       </c>
       <c r="M33" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N33" t="s">
         <v>343</v>
@@ -16419,7 +16373,7 @@
         <v>332</v>
       </c>
       <c r="M34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N34" t="s">
         <v>343</v>
@@ -16482,7 +16436,7 @@
         <v>332</v>
       </c>
       <c r="M35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N35" t="s">
         <v>343</v>
@@ -16545,7 +16499,7 @@
         <v>332</v>
       </c>
       <c r="M36" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N36" t="s">
         <v>343</v>
@@ -16608,7 +16562,7 @@
         <v>332</v>
       </c>
       <c r="M37" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N37" t="s">
         <v>343</v>
@@ -16671,7 +16625,7 @@
         <v>332</v>
       </c>
       <c r="M38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N38" t="s">
         <v>343</v>
@@ -16734,7 +16688,7 @@
         <v>332</v>
       </c>
       <c r="M39" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N39" t="s">
         <v>343</v>
@@ -16797,7 +16751,7 @@
         <v>332</v>
       </c>
       <c r="M40" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N40" t="s">
         <v>343</v>
@@ -16860,7 +16814,7 @@
         <v>332</v>
       </c>
       <c r="M41" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N41" t="s">
         <v>343</v>
@@ -16923,7 +16877,7 @@
         <v>332</v>
       </c>
       <c r="M42" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N42" t="s">
         <v>343</v>
@@ -16986,7 +16940,7 @@
         <v>332</v>
       </c>
       <c r="M43" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N43" t="s">
         <v>343</v>
@@ -17049,7 +17003,7 @@
         <v>332</v>
       </c>
       <c r="M44" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N44" t="s">
         <v>343</v>
@@ -17112,7 +17066,7 @@
         <v>332</v>
       </c>
       <c r="M45" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N45" t="s">
         <v>343</v>
@@ -17175,7 +17129,7 @@
         <v>332</v>
       </c>
       <c r="M46" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N46" t="s">
         <v>343</v>
@@ -17238,7 +17192,7 @@
         <v>332</v>
       </c>
       <c r="M47" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N47" t="s">
         <v>343</v>
@@ -17301,7 +17255,7 @@
         <v>332</v>
       </c>
       <c r="M48" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N48" t="s">
         <v>343</v>
@@ -17364,7 +17318,7 @@
         <v>332</v>
       </c>
       <c r="M49" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N49" t="s">
         <v>343</v>
@@ -17426,7 +17380,7 @@
         <v>332</v>
       </c>
       <c r="M50" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N50" t="s">
         <v>343</v>
@@ -17489,7 +17443,7 @@
         <v>332</v>
       </c>
       <c r="M51" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N51" t="s">
         <v>343</v>
@@ -17552,7 +17506,7 @@
         <v>332</v>
       </c>
       <c r="M52" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N52" t="s">
         <v>343</v>
@@ -17615,7 +17569,7 @@
         <v>332</v>
       </c>
       <c r="M53" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N53" t="s">
         <v>343</v>
@@ -17678,7 +17632,7 @@
         <v>332</v>
       </c>
       <c r="M54" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N54" t="s">
         <v>343</v>
@@ -17741,7 +17695,7 @@
         <v>332</v>
       </c>
       <c r="M55" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N55" t="s">
         <v>343</v>
@@ -17804,7 +17758,7 @@
         <v>332</v>
       </c>
       <c r="M56" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N56" t="s">
         <v>343</v>
@@ -17867,7 +17821,7 @@
         <v>332</v>
       </c>
       <c r="M57" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N57" t="s">
         <v>343</v>
@@ -17930,7 +17884,7 @@
         <v>332</v>
       </c>
       <c r="M58" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N58" t="s">
         <v>343</v>
@@ -17993,7 +17947,7 @@
         <v>332</v>
       </c>
       <c r="M59" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N59" t="s">
         <v>343</v>
@@ -18056,7 +18010,7 @@
         <v>332</v>
       </c>
       <c r="M60" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N60" t="s">
         <v>343</v>
@@ -18119,7 +18073,7 @@
         <v>332</v>
       </c>
       <c r="M61" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N61" t="s">
         <v>343</v>
@@ -18182,7 +18136,7 @@
         <v>332</v>
       </c>
       <c r="M62" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N62" t="s">
         <v>343</v>
@@ -18245,7 +18199,7 @@
         <v>332</v>
       </c>
       <c r="M63" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N63" t="s">
         <v>343</v>
@@ -18308,7 +18262,7 @@
         <v>332</v>
       </c>
       <c r="M64" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N64" t="s">
         <v>343</v>
@@ -18371,7 +18325,7 @@
         <v>332</v>
       </c>
       <c r="M65" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N65" t="s">
         <v>343</v>
@@ -18434,7 +18388,7 @@
         <v>332</v>
       </c>
       <c r="M66" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N66" t="s">
         <v>343</v>
@@ -18497,7 +18451,7 @@
         <v>332</v>
       </c>
       <c r="M67" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N67" t="s">
         <v>343</v>
@@ -18560,7 +18514,7 @@
         <v>332</v>
       </c>
       <c r="M68" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N68" t="s">
         <v>343</v>
@@ -18623,7 +18577,7 @@
         <v>332</v>
       </c>
       <c r="M69" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N69" t="s">
         <v>343</v>
@@ -18686,7 +18640,7 @@
         <v>332</v>
       </c>
       <c r="M70" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N70" t="s">
         <v>343</v>
@@ -18749,7 +18703,7 @@
         <v>332</v>
       </c>
       <c r="M71" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N71" t="s">
         <v>343</v>
@@ -18812,7 +18766,7 @@
         <v>332</v>
       </c>
       <c r="M72" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N72" t="s">
         <v>343</v>
@@ -18875,7 +18829,7 @@
         <v>332</v>
       </c>
       <c r="M73" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N73" t="s">
         <v>343</v>
@@ -18938,7 +18892,7 @@
         <v>332</v>
       </c>
       <c r="M74" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N74" t="s">
         <v>343</v>
@@ -19001,7 +18955,7 @@
         <v>332</v>
       </c>
       <c r="M75" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N75" t="s">
         <v>343</v>
@@ -19064,7 +19018,7 @@
         <v>332</v>
       </c>
       <c r="M76" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N76" t="s">
         <v>343</v>
@@ -19127,7 +19081,7 @@
         <v>332</v>
       </c>
       <c r="M77" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N77" t="s">
         <v>343</v>
@@ -19190,7 +19144,7 @@
         <v>332</v>
       </c>
       <c r="M78" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N78" t="s">
         <v>343</v>
@@ -19253,7 +19207,7 @@
         <v>332</v>
       </c>
       <c r="M79" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N79" t="s">
         <v>343</v>
@@ -19316,7 +19270,7 @@
         <v>332</v>
       </c>
       <c r="M80" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N80" t="s">
         <v>343</v>
@@ -19379,7 +19333,7 @@
         <v>332</v>
       </c>
       <c r="M81" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N81" t="s">
         <v>343</v>
@@ -19442,7 +19396,7 @@
         <v>332</v>
       </c>
       <c r="M82" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N82" t="s">
         <v>343</v>
@@ -19505,7 +19459,7 @@
         <v>332</v>
       </c>
       <c r="M83" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N83" t="s">
         <v>343</v>
@@ -19568,7 +19522,7 @@
         <v>332</v>
       </c>
       <c r="M84" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N84" t="s">
         <v>343</v>
@@ -19631,7 +19585,7 @@
         <v>332</v>
       </c>
       <c r="M85" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N85" t="s">
         <v>343</v>
@@ -19694,7 +19648,7 @@
         <v>332</v>
       </c>
       <c r="M86" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N86" t="s">
         <v>343</v>
@@ -19757,7 +19711,7 @@
         <v>332</v>
       </c>
       <c r="M87" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N87" t="s">
         <v>343</v>
@@ -19820,7 +19774,7 @@
         <v>332</v>
       </c>
       <c r="M88" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N88" t="s">
         <v>343</v>
@@ -19883,7 +19837,7 @@
         <v>332</v>
       </c>
       <c r="M89" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N89" t="s">
         <v>343</v>
@@ -19946,7 +19900,7 @@
         <v>332</v>
       </c>
       <c r="M90" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N90" t="s">
         <v>343</v>
@@ -20009,7 +19963,7 @@
         <v>332</v>
       </c>
       <c r="M91" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N91" t="s">
         <v>343</v>
@@ -20072,7 +20026,7 @@
         <v>332</v>
       </c>
       <c r="M92" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N92" t="s">
         <v>343</v>
@@ -20135,7 +20089,7 @@
         <v>332</v>
       </c>
       <c r="M93" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N93" t="s">
         <v>343</v>
@@ -20198,7 +20152,7 @@
         <v>332</v>
       </c>
       <c r="M94" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N94" t="s">
         <v>343</v>
@@ -20261,7 +20215,7 @@
         <v>332</v>
       </c>
       <c r="M95" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N95" t="s">
         <v>343</v>
@@ -20324,7 +20278,7 @@
         <v>332</v>
       </c>
       <c r="M96" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N96" t="s">
         <v>343</v>
@@ -20387,7 +20341,7 @@
         <v>332</v>
       </c>
       <c r="M97" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N97" t="s">
         <v>343</v>
@@ -20449,7 +20403,7 @@
         <v>332</v>
       </c>
       <c r="M98" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N98" t="s">
         <v>343</v>
@@ -20512,7 +20466,7 @@
         <v>332</v>
       </c>
       <c r="M99" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N99" t="s">
         <v>343</v>
@@ -20575,7 +20529,7 @@
         <v>332</v>
       </c>
       <c r="M100" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N100" t="s">
         <v>343</v>
@@ -20638,7 +20592,7 @@
         <v>332</v>
       </c>
       <c r="M101" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N101" t="s">
         <v>343</v>
@@ -20701,7 +20655,7 @@
         <v>332</v>
       </c>
       <c r="M102" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N102" t="s">
         <v>343</v>
@@ -20764,7 +20718,7 @@
         <v>332</v>
       </c>
       <c r="M103" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N103" t="s">
         <v>343</v>
@@ -20827,7 +20781,7 @@
         <v>332</v>
       </c>
       <c r="M104" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N104" t="s">
         <v>343</v>
@@ -20890,7 +20844,7 @@
         <v>332</v>
       </c>
       <c r="M105" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N105" t="s">
         <v>343</v>
@@ -20953,7 +20907,7 @@
         <v>332</v>
       </c>
       <c r="M106" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N106" t="s">
         <v>343</v>
@@ -21016,7 +20970,7 @@
         <v>332</v>
       </c>
       <c r="M107" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N107" t="s">
         <v>343</v>
@@ -21079,7 +21033,7 @@
         <v>332</v>
       </c>
       <c r="M108" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N108" t="s">
         <v>343</v>
@@ -21142,7 +21096,7 @@
         <v>332</v>
       </c>
       <c r="M109" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N109" t="s">
         <v>343</v>
@@ -21205,7 +21159,7 @@
         <v>332</v>
       </c>
       <c r="M110" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N110" t="s">
         <v>343</v>
@@ -21268,7 +21222,7 @@
         <v>332</v>
       </c>
       <c r="M111" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N111" t="s">
         <v>343</v>
@@ -21331,7 +21285,7 @@
         <v>332</v>
       </c>
       <c r="M112" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N112" t="s">
         <v>343</v>
@@ -21394,7 +21348,7 @@
         <v>332</v>
       </c>
       <c r="M113" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N113" t="s">
         <v>343</v>
@@ -21457,7 +21411,7 @@
         <v>332</v>
       </c>
       <c r="M114" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N114" t="s">
         <v>343</v>
@@ -21520,7 +21474,7 @@
         <v>332</v>
       </c>
       <c r="M115" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N115" t="s">
         <v>343</v>
@@ -21583,7 +21537,7 @@
         <v>332</v>
       </c>
       <c r="M116" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N116" t="s">
         <v>343</v>
@@ -21646,7 +21600,7 @@
         <v>332</v>
       </c>
       <c r="M117" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N117" t="s">
         <v>343</v>
@@ -21709,7 +21663,7 @@
         <v>332</v>
       </c>
       <c r="M118" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N118" t="s">
         <v>343</v>
@@ -21772,7 +21726,7 @@
         <v>332</v>
       </c>
       <c r="M119" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N119" t="s">
         <v>343</v>
@@ -21835,7 +21789,7 @@
         <v>332</v>
       </c>
       <c r="M120" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N120" t="s">
         <v>343</v>
@@ -21898,7 +21852,7 @@
         <v>332</v>
       </c>
       <c r="M121" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N121" t="s">
         <v>343</v>
@@ -21961,7 +21915,7 @@
         <v>332</v>
       </c>
       <c r="M122" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N122" t="s">
         <v>343</v>
@@ -22024,7 +21978,7 @@
         <v>332</v>
       </c>
       <c r="M123" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N123" t="s">
         <v>343</v>
@@ -22087,7 +22041,7 @@
         <v>332</v>
       </c>
       <c r="M124" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N124" t="s">
         <v>343</v>
@@ -22150,7 +22104,7 @@
         <v>332</v>
       </c>
       <c r="M125" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N125" t="s">
         <v>343</v>
@@ -22213,7 +22167,7 @@
         <v>332</v>
       </c>
       <c r="M126" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N126" t="s">
         <v>343</v>
@@ -22276,7 +22230,7 @@
         <v>332</v>
       </c>
       <c r="M127" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N127" t="s">
         <v>343</v>
@@ -22339,7 +22293,7 @@
         <v>332</v>
       </c>
       <c r="M128" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N128" t="s">
         <v>343</v>
@@ -22402,7 +22356,7 @@
         <v>332</v>
       </c>
       <c r="M129" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N129" t="s">
         <v>343</v>
@@ -22465,7 +22419,7 @@
         <v>332</v>
       </c>
       <c r="M130" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N130" t="s">
         <v>343</v>
@@ -22528,7 +22482,7 @@
         <v>332</v>
       </c>
       <c r="M131" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N131" t="s">
         <v>343</v>
@@ -22591,7 +22545,7 @@
         <v>332</v>
       </c>
       <c r="M132" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N132" t="s">
         <v>343</v>
@@ -22654,7 +22608,7 @@
         <v>332</v>
       </c>
       <c r="M133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N133" t="s">
         <v>343</v>
@@ -22717,7 +22671,7 @@
         <v>332</v>
       </c>
       <c r="M134" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N134" t="s">
         <v>343</v>
@@ -22780,7 +22734,7 @@
         <v>332</v>
       </c>
       <c r="M135" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N135" t="s">
         <v>343</v>
@@ -22843,7 +22797,7 @@
         <v>332</v>
       </c>
       <c r="M136" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N136" t="s">
         <v>343</v>
@@ -22906,7 +22860,7 @@
         <v>332</v>
       </c>
       <c r="M137" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N137" t="s">
         <v>343</v>
@@ -22969,7 +22923,7 @@
         <v>332</v>
       </c>
       <c r="M138" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N138" t="s">
         <v>343</v>
@@ -23032,7 +22986,7 @@
         <v>332</v>
       </c>
       <c r="M139" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N139" t="s">
         <v>343</v>
@@ -23095,7 +23049,7 @@
         <v>332</v>
       </c>
       <c r="M140" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N140" t="s">
         <v>343</v>
@@ -23158,7 +23112,7 @@
         <v>332</v>
       </c>
       <c r="M141" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N141" t="s">
         <v>343</v>
@@ -23221,7 +23175,7 @@
         <v>332</v>
       </c>
       <c r="M142" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N142" t="s">
         <v>343</v>
@@ -23284,7 +23238,7 @@
         <v>332</v>
       </c>
       <c r="M143" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N143" t="s">
         <v>343</v>
@@ -23347,7 +23301,7 @@
         <v>332</v>
       </c>
       <c r="M144" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N144" t="s">
         <v>343</v>
@@ -23410,7 +23364,7 @@
         <v>332</v>
       </c>
       <c r="M145" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N145" t="s">
         <v>343</v>
@@ -23472,7 +23426,7 @@
         <v>332</v>
       </c>
       <c r="M146" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N146" t="s">
         <v>343</v>
@@ -23535,7 +23489,7 @@
         <v>332</v>
       </c>
       <c r="M147" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N147" t="s">
         <v>343</v>
@@ -23598,7 +23552,7 @@
         <v>332</v>
       </c>
       <c r="M148" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N148" t="s">
         <v>343</v>
@@ -23661,7 +23615,7 @@
         <v>332</v>
       </c>
       <c r="M149" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N149" t="s">
         <v>343</v>
@@ -23724,7 +23678,7 @@
         <v>332</v>
       </c>
       <c r="M150" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N150" t="s">
         <v>343</v>
@@ -23787,7 +23741,7 @@
         <v>332</v>
       </c>
       <c r="M151" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N151" t="s">
         <v>343</v>
@@ -23850,7 +23804,7 @@
         <v>332</v>
       </c>
       <c r="M152" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N152" t="s">
         <v>343</v>
@@ -23913,7 +23867,7 @@
         <v>332</v>
       </c>
       <c r="M153" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N153" t="s">
         <v>343</v>
@@ -23976,7 +23930,7 @@
         <v>332</v>
       </c>
       <c r="M154" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N154" t="s">
         <v>343</v>
@@ -24039,7 +23993,7 @@
         <v>332</v>
       </c>
       <c r="M155" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N155" t="s">
         <v>343</v>
@@ -24102,7 +24056,7 @@
         <v>332</v>
       </c>
       <c r="M156" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N156" t="s">
         <v>343</v>
@@ -24165,7 +24119,7 @@
         <v>332</v>
       </c>
       <c r="M157" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N157" t="s">
         <v>343</v>
@@ -24228,7 +24182,7 @@
         <v>332</v>
       </c>
       <c r="M158" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N158" t="s">
         <v>343</v>
@@ -24291,7 +24245,7 @@
         <v>332</v>
       </c>
       <c r="M159" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N159" t="s">
         <v>343</v>
@@ -24354,7 +24308,7 @@
         <v>332</v>
       </c>
       <c r="M160" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N160" t="s">
         <v>343</v>
@@ -24417,7 +24371,7 @@
         <v>332</v>
       </c>
       <c r="M161" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N161" t="s">
         <v>343</v>
@@ -24480,7 +24434,7 @@
         <v>332</v>
       </c>
       <c r="M162" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N162" t="s">
         <v>343</v>
@@ -24543,7 +24497,7 @@
         <v>332</v>
       </c>
       <c r="M163" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N163" t="s">
         <v>343</v>
@@ -24606,7 +24560,7 @@
         <v>332</v>
       </c>
       <c r="M164" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N164" t="s">
         <v>343</v>
@@ -24669,7 +24623,7 @@
         <v>332</v>
       </c>
       <c r="M165" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N165" t="s">
         <v>343</v>
@@ -24732,7 +24686,7 @@
         <v>332</v>
       </c>
       <c r="M166" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N166" t="s">
         <v>343</v>
@@ -24795,7 +24749,7 @@
         <v>332</v>
       </c>
       <c r="M167" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N167" t="s">
         <v>343</v>
@@ -24858,7 +24812,7 @@
         <v>332</v>
       </c>
       <c r="M168" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N168" t="s">
         <v>343</v>
@@ -24921,7 +24875,7 @@
         <v>332</v>
       </c>
       <c r="M169" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N169" t="s">
         <v>343</v>
@@ -24984,7 +24938,7 @@
         <v>332</v>
       </c>
       <c r="M170" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N170" t="s">
         <v>343</v>
@@ -25047,7 +25001,7 @@
         <v>332</v>
       </c>
       <c r="M171" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N171" t="s">
         <v>343</v>
@@ -25110,7 +25064,7 @@
         <v>332</v>
       </c>
       <c r="M172" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N172" t="s">
         <v>343</v>
@@ -25173,7 +25127,7 @@
         <v>332</v>
       </c>
       <c r="M173" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N173" t="s">
         <v>343</v>
@@ -25236,7 +25190,7 @@
         <v>332</v>
       </c>
       <c r="M174" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N174" t="s">
         <v>343</v>
@@ -25299,7 +25253,7 @@
         <v>332</v>
       </c>
       <c r="M175" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N175" t="s">
         <v>343</v>
@@ -25362,7 +25316,7 @@
         <v>332</v>
       </c>
       <c r="M176" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N176" t="s">
         <v>343</v>
@@ -25425,7 +25379,7 @@
         <v>332</v>
       </c>
       <c r="M177" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N177" t="s">
         <v>343</v>
@@ -25488,7 +25442,7 @@
         <v>332</v>
       </c>
       <c r="M178" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N178" t="s">
         <v>343</v>
@@ -25551,7 +25505,7 @@
         <v>332</v>
       </c>
       <c r="M179" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N179" t="s">
         <v>343</v>
@@ -25614,7 +25568,7 @@
         <v>332</v>
       </c>
       <c r="M180" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N180" t="s">
         <v>343</v>
@@ -25677,7 +25631,7 @@
         <v>332</v>
       </c>
       <c r="M181" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N181" t="s">
         <v>343</v>
@@ -25740,7 +25694,7 @@
         <v>332</v>
       </c>
       <c r="M182" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N182" t="s">
         <v>343</v>
@@ -25803,7 +25757,7 @@
         <v>332</v>
       </c>
       <c r="M183" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N183" t="s">
         <v>343</v>
@@ -25866,7 +25820,7 @@
         <v>332</v>
       </c>
       <c r="M184" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N184" t="s">
         <v>343</v>
@@ -25929,7 +25883,7 @@
         <v>332</v>
       </c>
       <c r="M185" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N185" t="s">
         <v>343</v>
@@ -25992,7 +25946,7 @@
         <v>332</v>
       </c>
       <c r="M186" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N186" t="s">
         <v>343</v>
@@ -26055,7 +26009,7 @@
         <v>332</v>
       </c>
       <c r="M187" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N187" t="s">
         <v>343</v>
@@ -26118,7 +26072,7 @@
         <v>332</v>
       </c>
       <c r="M188" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N188" t="s">
         <v>343</v>
@@ -26181,7 +26135,7 @@
         <v>332</v>
       </c>
       <c r="M189" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N189" t="s">
         <v>343</v>
@@ -26244,7 +26198,7 @@
         <v>332</v>
       </c>
       <c r="M190" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N190" t="s">
         <v>343</v>
@@ -26307,7 +26261,7 @@
         <v>332</v>
       </c>
       <c r="M191" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N191" t="s">
         <v>343</v>
@@ -26370,7 +26324,7 @@
         <v>332</v>
       </c>
       <c r="M192" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N192" t="s">
         <v>343</v>
@@ -26433,7 +26387,7 @@
         <v>332</v>
       </c>
       <c r="M193" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N193" t="s">
         <v>343</v>
@@ -26496,7 +26450,7 @@
         <v>332</v>
       </c>
       <c r="M194" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N194" t="s">
         <v>343</v>
@@ -26559,7 +26513,7 @@
         <v>332</v>
       </c>
       <c r="M195" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N195" t="s">
         <v>343</v>
@@ -26622,7 +26576,7 @@
         <v>332</v>
       </c>
       <c r="M196" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N196" t="s">
         <v>343</v>
@@ -26685,7 +26639,7 @@
         <v>332</v>
       </c>
       <c r="M197" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N197" t="s">
         <v>343</v>
@@ -26748,7 +26702,7 @@
         <v>332</v>
       </c>
       <c r="M198" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N198" t="s">
         <v>343</v>
@@ -26811,7 +26765,7 @@
         <v>332</v>
       </c>
       <c r="M199" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N199" t="s">
         <v>343</v>
@@ -26874,7 +26828,7 @@
         <v>332</v>
       </c>
       <c r="M200" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N200" t="s">
         <v>343</v>
@@ -26937,7 +26891,7 @@
         <v>332</v>
       </c>
       <c r="M201" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N201" t="s">
         <v>343</v>
@@ -27000,7 +26954,7 @@
         <v>332</v>
       </c>
       <c r="M202" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N202" t="s">
         <v>343</v>
@@ -27063,7 +27017,7 @@
         <v>332</v>
       </c>
       <c r="M203" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N203" t="s">
         <v>343</v>
@@ -27126,7 +27080,7 @@
         <v>332</v>
       </c>
       <c r="M204" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N204" t="s">
         <v>343</v>
@@ -27189,7 +27143,7 @@
         <v>332</v>
       </c>
       <c r="M205" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N205" t="s">
         <v>343</v>
@@ -27252,7 +27206,7 @@
         <v>332</v>
       </c>
       <c r="M206" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N206" t="s">
         <v>343</v>
@@ -27315,7 +27269,7 @@
         <v>332</v>
       </c>
       <c r="M207" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N207" t="s">
         <v>343</v>
@@ -27378,7 +27332,7 @@
         <v>332</v>
       </c>
       <c r="M208" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N208" t="s">
         <v>343</v>
@@ -27441,7 +27395,7 @@
         <v>332</v>
       </c>
       <c r="M209" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N209" t="s">
         <v>343</v>
@@ -27504,7 +27458,7 @@
         <v>332</v>
       </c>
       <c r="M210" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N210" t="s">
         <v>343</v>
@@ -27567,7 +27521,7 @@
         <v>332</v>
       </c>
       <c r="M211" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N211" t="s">
         <v>343</v>
@@ -27630,7 +27584,7 @@
         <v>332</v>
       </c>
       <c r="M212" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N212" t="s">
         <v>343</v>
@@ -27693,7 +27647,7 @@
         <v>332</v>
       </c>
       <c r="M213" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N213" t="s">
         <v>343</v>
@@ -27756,7 +27710,7 @@
         <v>332</v>
       </c>
       <c r="M214" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N214" t="s">
         <v>343</v>
@@ -27819,7 +27773,7 @@
         <v>332</v>
       </c>
       <c r="M215" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N215" t="s">
         <v>343</v>
@@ -27882,7 +27836,7 @@
         <v>332</v>
       </c>
       <c r="M216" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N216" t="s">
         <v>343</v>
@@ -27944,7 +27898,7 @@
         <v>332</v>
       </c>
       <c r="M217" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N217" t="s">
         <v>343</v>
@@ -28006,7 +27960,7 @@
         <v>332</v>
       </c>
       <c r="M218" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N218" t="s">
         <v>343</v>
@@ -28069,7 +28023,7 @@
         <v>332</v>
       </c>
       <c r="M219" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N219" t="s">
         <v>343</v>
@@ -28132,7 +28086,7 @@
         <v>332</v>
       </c>
       <c r="M220" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N220" t="s">
         <v>343</v>
@@ -28195,7 +28149,7 @@
         <v>332</v>
       </c>
       <c r="M221" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N221" t="s">
         <v>343</v>
@@ -28258,7 +28212,7 @@
         <v>332</v>
       </c>
       <c r="M222" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N222" t="s">
         <v>343</v>
@@ -28321,7 +28275,7 @@
         <v>332</v>
       </c>
       <c r="M223" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N223" t="s">
         <v>343</v>
@@ -28384,7 +28338,7 @@
         <v>332</v>
       </c>
       <c r="M224" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N224" t="s">
         <v>343</v>
@@ -28447,7 +28401,7 @@
         <v>332</v>
       </c>
       <c r="M225" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N225" t="s">
         <v>343</v>
@@ -28510,7 +28464,7 @@
         <v>332</v>
       </c>
       <c r="M226" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N226" t="s">
         <v>343</v>
@@ -28573,7 +28527,7 @@
         <v>332</v>
       </c>
       <c r="M227" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N227" t="s">
         <v>343</v>
@@ -28636,7 +28590,7 @@
         <v>332</v>
       </c>
       <c r="M228" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N228" t="s">
         <v>343</v>
@@ -28699,7 +28653,7 @@
         <v>332</v>
       </c>
       <c r="M229" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N229" t="s">
         <v>343</v>
@@ -28762,7 +28716,7 @@
         <v>332</v>
       </c>
       <c r="M230" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N230" t="s">
         <v>343</v>
@@ -28825,7 +28779,7 @@
         <v>332</v>
       </c>
       <c r="M231" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N231" t="s">
         <v>343</v>
@@ -28888,7 +28842,7 @@
         <v>332</v>
       </c>
       <c r="M232" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N232" t="s">
         <v>343</v>
@@ -28951,7 +28905,7 @@
         <v>332</v>
       </c>
       <c r="M233" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N233" t="s">
         <v>343</v>
@@ -29014,7 +28968,7 @@
         <v>332</v>
       </c>
       <c r="M234" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N234" t="s">
         <v>343</v>
@@ -29077,7 +29031,7 @@
         <v>332</v>
       </c>
       <c r="M235" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N235" t="s">
         <v>343</v>
@@ -29140,7 +29094,7 @@
         <v>332</v>
       </c>
       <c r="M236" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N236" t="s">
         <v>343</v>
@@ -29203,7 +29157,7 @@
         <v>332</v>
       </c>
       <c r="M237" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N237" t="s">
         <v>343</v>
@@ -29266,7 +29220,7 @@
         <v>332</v>
       </c>
       <c r="M238" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N238" t="s">
         <v>343</v>
@@ -29329,7 +29283,7 @@
         <v>332</v>
       </c>
       <c r="M239" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N239" t="s">
         <v>343</v>
@@ -29392,7 +29346,7 @@
         <v>332</v>
       </c>
       <c r="M240" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N240" t="s">
         <v>343</v>
@@ -29455,7 +29409,7 @@
         <v>332</v>
       </c>
       <c r="M241" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N241" t="s">
         <v>343</v>
@@ -29517,7 +29471,7 @@
         <v>332</v>
       </c>
       <c r="M242" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N242" t="s">
         <v>343</v>
@@ -29580,7 +29534,7 @@
         <v>332</v>
       </c>
       <c r="M243" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N243" t="s">
         <v>343</v>
@@ -29643,7 +29597,7 @@
         <v>332</v>
       </c>
       <c r="M244" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N244" t="s">
         <v>343</v>
@@ -29706,7 +29660,7 @@
         <v>332</v>
       </c>
       <c r="M245" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N245" t="s">
         <v>343</v>
@@ -29769,7 +29723,7 @@
         <v>332</v>
       </c>
       <c r="M246" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N246" t="s">
         <v>343</v>
@@ -29832,7 +29786,7 @@
         <v>332</v>
       </c>
       <c r="M247" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N247" t="s">
         <v>343</v>
@@ -29895,7 +29849,7 @@
         <v>332</v>
       </c>
       <c r="M248" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N248" t="s">
         <v>343</v>
@@ -29958,7 +29912,7 @@
         <v>332</v>
       </c>
       <c r="M249" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N249" t="s">
         <v>343</v>
@@ -30021,7 +29975,7 @@
         <v>332</v>
       </c>
       <c r="M250" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N250" t="s">
         <v>343</v>
@@ -30084,7 +30038,7 @@
         <v>332</v>
       </c>
       <c r="M251" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N251" t="s">
         <v>343</v>
@@ -30147,7 +30101,7 @@
         <v>332</v>
       </c>
       <c r="M252" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N252" t="s">
         <v>343</v>
@@ -30210,7 +30164,7 @@
         <v>332</v>
       </c>
       <c r="M253" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N253" t="s">
         <v>343</v>
@@ -30273,7 +30227,7 @@
         <v>332</v>
       </c>
       <c r="M254" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N254" t="s">
         <v>343</v>
@@ -30336,7 +30290,7 @@
         <v>332</v>
       </c>
       <c r="M255" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N255" t="s">
         <v>343</v>
@@ -30399,7 +30353,7 @@
         <v>332</v>
       </c>
       <c r="M256" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N256" t="s">
         <v>343</v>
@@ -30462,7 +30416,7 @@
         <v>332</v>
       </c>
       <c r="M257" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N257" t="s">
         <v>343</v>
@@ -30525,7 +30479,7 @@
         <v>332</v>
       </c>
       <c r="M258" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N258" t="s">
         <v>343</v>
@@ -30588,7 +30542,7 @@
         <v>332</v>
       </c>
       <c r="M259" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N259" t="s">
         <v>343</v>
@@ -30651,7 +30605,7 @@
         <v>332</v>
       </c>
       <c r="M260" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N260" t="s">
         <v>343</v>
@@ -30714,7 +30668,7 @@
         <v>332</v>
       </c>
       <c r="M261" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N261" t="s">
         <v>343</v>
@@ -30777,7 +30731,7 @@
         <v>332</v>
       </c>
       <c r="M262" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N262" t="s">
         <v>343</v>
@@ -30840,7 +30794,7 @@
         <v>332</v>
       </c>
       <c r="M263" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N263" t="s">
         <v>343</v>
@@ -30903,7 +30857,7 @@
         <v>332</v>
       </c>
       <c r="M264" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N264" t="s">
         <v>343</v>
@@ -30966,7 +30920,7 @@
         <v>332</v>
       </c>
       <c r="M265" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N265" t="s">
         <v>343</v>
@@ -31028,7 +30982,7 @@
         <v>332</v>
       </c>
       <c r="M266" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N266" t="s">
         <v>343</v>
@@ -31091,7 +31045,7 @@
         <v>332</v>
       </c>
       <c r="M267" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N267" t="s">
         <v>343</v>
@@ -31154,7 +31108,7 @@
         <v>332</v>
       </c>
       <c r="M268" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N268" t="s">
         <v>343</v>
@@ -31217,7 +31171,7 @@
         <v>332</v>
       </c>
       <c r="M269" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N269" t="s">
         <v>343</v>
@@ -31280,7 +31234,7 @@
         <v>332</v>
       </c>
       <c r="M270" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N270" t="s">
         <v>343</v>
@@ -31343,7 +31297,7 @@
         <v>332</v>
       </c>
       <c r="M271" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N271" t="s">
         <v>343</v>
@@ -31406,7 +31360,7 @@
         <v>332</v>
       </c>
       <c r="M272" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N272" t="s">
         <v>343</v>
@@ -31469,7 +31423,7 @@
         <v>332</v>
       </c>
       <c r="M273" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N273" t="s">
         <v>343</v>
@@ -31532,7 +31486,7 @@
         <v>332</v>
       </c>
       <c r="M274" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N274" t="s">
         <v>343</v>
@@ -31595,7 +31549,7 @@
         <v>332</v>
       </c>
       <c r="M275" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N275" t="s">
         <v>343</v>
@@ -31658,7 +31612,7 @@
         <v>332</v>
       </c>
       <c r="M276" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N276" t="s">
         <v>343</v>
@@ -31721,7 +31675,7 @@
         <v>332</v>
       </c>
       <c r="M277" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N277" t="s">
         <v>343</v>
@@ -31784,7 +31738,7 @@
         <v>332</v>
       </c>
       <c r="M278" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N278" t="s">
         <v>343</v>
@@ -31847,7 +31801,7 @@
         <v>332</v>
       </c>
       <c r="M279" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N279" t="s">
         <v>343</v>
@@ -31910,7 +31864,7 @@
         <v>332</v>
       </c>
       <c r="M280" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N280" t="s">
         <v>343</v>
@@ -31973,7 +31927,7 @@
         <v>332</v>
       </c>
       <c r="M281" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N281" t="s">
         <v>343</v>
@@ -32036,7 +31990,7 @@
         <v>332</v>
       </c>
       <c r="M282" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N282" t="s">
         <v>343</v>
@@ -32099,7 +32053,7 @@
         <v>332</v>
       </c>
       <c r="M283" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N283" t="s">
         <v>343</v>
@@ -32162,7 +32116,7 @@
         <v>332</v>
       </c>
       <c r="M284" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N284" t="s">
         <v>343</v>
@@ -32225,7 +32179,7 @@
         <v>332</v>
       </c>
       <c r="M285" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N285" t="s">
         <v>343</v>
@@ -32288,7 +32242,7 @@
         <v>332</v>
       </c>
       <c r="M286" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N286" t="s">
         <v>343</v>
@@ -32351,7 +32305,7 @@
         <v>332</v>
       </c>
       <c r="M287" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N287" t="s">
         <v>343</v>
@@ -32414,7 +32368,7 @@
         <v>332</v>
       </c>
       <c r="M288" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N288" t="s">
         <v>343</v>
@@ -32477,7 +32431,7 @@
         <v>332</v>
       </c>
       <c r="M289" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N289" t="s">
         <v>343</v>
@@ -32539,7 +32493,7 @@
         <v>332</v>
       </c>
       <c r="M290" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N290" t="s">
         <v>343</v>
@@ -32602,7 +32556,7 @@
         <v>332</v>
       </c>
       <c r="M291" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N291" t="s">
         <v>343</v>
@@ -32665,7 +32619,7 @@
         <v>332</v>
       </c>
       <c r="M292" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N292" t="s">
         <v>343</v>
@@ -32728,7 +32682,7 @@
         <v>332</v>
       </c>
       <c r="M293" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N293" t="s">
         <v>343</v>
@@ -32791,7 +32745,7 @@
         <v>332</v>
       </c>
       <c r="M294" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N294" t="s">
         <v>343</v>
@@ -32854,7 +32808,7 @@
         <v>332</v>
       </c>
       <c r="M295" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N295" t="s">
         <v>343</v>
@@ -32917,7 +32871,7 @@
         <v>332</v>
       </c>
       <c r="M296" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N296" t="s">
         <v>343</v>
@@ -32980,7 +32934,7 @@
         <v>332</v>
       </c>
       <c r="M297" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N297" t="s">
         <v>343</v>
@@ -33043,7 +32997,7 @@
         <v>332</v>
       </c>
       <c r="M298" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N298" t="s">
         <v>343</v>
@@ -33106,7 +33060,7 @@
         <v>332</v>
       </c>
       <c r="M299" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N299" t="s">
         <v>343</v>
@@ -33169,7 +33123,7 @@
         <v>332</v>
       </c>
       <c r="M300" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N300" t="s">
         <v>343</v>
@@ -33232,7 +33186,7 @@
         <v>332</v>
       </c>
       <c r="M301" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N301" t="s">
         <v>343</v>
@@ -33295,7 +33249,7 @@
         <v>332</v>
       </c>
       <c r="M302" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N302" t="s">
         <v>343</v>
@@ -33358,7 +33312,7 @@
         <v>332</v>
       </c>
       <c r="M303" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N303" t="s">
         <v>343</v>
@@ -33421,7 +33375,7 @@
         <v>332</v>
       </c>
       <c r="M304" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N304" t="s">
         <v>343</v>
@@ -33484,7 +33438,7 @@
         <v>332</v>
       </c>
       <c r="M305" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N305" t="s">
         <v>343</v>
@@ -33547,7 +33501,7 @@
         <v>332</v>
       </c>
       <c r="M306" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N306" t="s">
         <v>343</v>
@@ -33610,7 +33564,7 @@
         <v>332</v>
       </c>
       <c r="M307" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N307" t="s">
         <v>343</v>
@@ -33673,7 +33627,7 @@
         <v>332</v>
       </c>
       <c r="M308" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N308" t="s">
         <v>343</v>
@@ -33736,7 +33690,7 @@
         <v>332</v>
       </c>
       <c r="M309" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N309" t="s">
         <v>343</v>
@@ -33799,7 +33753,7 @@
         <v>332</v>
       </c>
       <c r="M310" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N310" t="s">
         <v>343</v>
@@ -33862,7 +33816,7 @@
         <v>332</v>
       </c>
       <c r="M311" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N311" t="s">
         <v>343</v>
@@ -33925,7 +33879,7 @@
         <v>332</v>
       </c>
       <c r="M312" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N312" t="s">
         <v>343</v>
@@ -33988,7 +33942,7 @@
         <v>332</v>
       </c>
       <c r="M313" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N313" t="s">
         <v>343</v>
@@ -34050,7 +34004,7 @@
         <v>332</v>
       </c>
       <c r="M314" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N314" t="s">
         <v>343</v>
@@ -34113,7 +34067,7 @@
         <v>332</v>
       </c>
       <c r="M315" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N315" t="s">
         <v>343</v>
@@ -34176,7 +34130,7 @@
         <v>332</v>
       </c>
       <c r="M316" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N316" t="s">
         <v>343</v>
@@ -34239,7 +34193,7 @@
         <v>332</v>
       </c>
       <c r="M317" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N317" t="s">
         <v>343</v>
@@ -34302,7 +34256,7 @@
         <v>332</v>
       </c>
       <c r="M318" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N318" t="s">
         <v>343</v>
@@ -34365,7 +34319,7 @@
         <v>332</v>
       </c>
       <c r="M319" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N319" t="s">
         <v>343</v>
@@ -34428,7 +34382,7 @@
         <v>332</v>
       </c>
       <c r="M320" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N320" t="s">
         <v>343</v>
@@ -34491,7 +34445,7 @@
         <v>332</v>
       </c>
       <c r="M321" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N321" t="s">
         <v>343</v>
@@ -34554,7 +34508,7 @@
         <v>332</v>
       </c>
       <c r="M322" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N322" t="s">
         <v>343</v>
@@ -34617,7 +34571,7 @@
         <v>332</v>
       </c>
       <c r="M323" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N323" t="s">
         <v>343</v>
@@ -34680,7 +34634,7 @@
         <v>332</v>
       </c>
       <c r="M324" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N324" t="s">
         <v>343</v>
@@ -34743,7 +34697,7 @@
         <v>332</v>
       </c>
       <c r="M325" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N325" t="s">
         <v>343</v>
@@ -34806,7 +34760,7 @@
         <v>332</v>
       </c>
       <c r="M326" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N326" t="s">
         <v>343</v>
@@ -34869,7 +34823,7 @@
         <v>332</v>
       </c>
       <c r="M327" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N327" t="s">
         <v>343</v>
@@ -34932,7 +34886,7 @@
         <v>332</v>
       </c>
       <c r="M328" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N328" t="s">
         <v>343</v>
@@ -34995,7 +34949,7 @@
         <v>332</v>
       </c>
       <c r="M329" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N329" t="s">
         <v>343</v>
@@ -35058,7 +35012,7 @@
         <v>332</v>
       </c>
       <c r="M330" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N330" t="s">
         <v>343</v>
@@ -35121,7 +35075,7 @@
         <v>332</v>
       </c>
       <c r="M331" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N331" t="s">
         <v>343</v>
@@ -35184,7 +35138,7 @@
         <v>332</v>
       </c>
       <c r="M332" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N332" t="s">
         <v>343</v>
@@ -35247,7 +35201,7 @@
         <v>332</v>
       </c>
       <c r="M333" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N333" t="s">
         <v>343</v>
@@ -35310,7 +35264,7 @@
         <v>332</v>
       </c>
       <c r="M334" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N334" t="s">
         <v>343</v>
@@ -35373,7 +35327,7 @@
         <v>332</v>
       </c>
       <c r="M335" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N335" t="s">
         <v>343</v>
@@ -35436,7 +35390,7 @@
         <v>332</v>
       </c>
       <c r="M336" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N336" t="s">
         <v>343</v>
@@ -35499,7 +35453,7 @@
         <v>332</v>
       </c>
       <c r="M337" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N337" t="s">
         <v>343</v>
@@ -61567,7 +61521,7 @@
     </row>
     <row r="898" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B898" t="s">
         <v>112</v>
@@ -61596,7 +61550,7 @@
     </row>
     <row r="899" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B899" t="s">
         <v>113</v>
@@ -61625,7 +61579,7 @@
     </row>
     <row r="900" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B900" t="s">
         <v>114</v>
@@ -61654,7 +61608,7 @@
     </row>
     <row r="901" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B901" t="s">
         <v>115</v>
@@ -61683,7 +61637,7 @@
     </row>
     <row r="902" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B902" t="s">
         <v>116</v>
@@ -61712,7 +61666,7 @@
     </row>
     <row r="903" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B903" t="s">
         <v>117</v>
@@ -61741,7 +61695,7 @@
     </row>
     <row r="904" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B904" t="s">
         <v>118</v>
@@ -61770,7 +61724,7 @@
     </row>
     <row r="905" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B905" t="s">
         <v>119</v>
@@ -61799,7 +61753,7 @@
     </row>
     <row r="906" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B906" t="s">
         <v>120</v>
@@ -61828,7 +61782,7 @@
     </row>
     <row r="907" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B907" t="s">
         <v>121</v>
@@ -61857,7 +61811,7 @@
     </row>
     <row r="908" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B908" t="s">
         <v>122</v>
@@ -61886,7 +61840,7 @@
     </row>
     <row r="909" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B909" t="s">
         <v>123</v>
@@ -61915,7 +61869,7 @@
     </row>
     <row r="910" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B910" t="s">
         <v>124</v>
@@ -61944,7 +61898,7 @@
     </row>
     <row r="911" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B911" t="s">
         <v>125</v>
@@ -61973,7 +61927,7 @@
     </row>
     <row r="912" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B912" t="s">
         <v>126</v>
@@ -62002,7 +61956,7 @@
     </row>
     <row r="913" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B913" t="s">
         <v>127</v>
@@ -62031,7 +61985,7 @@
     </row>
     <row r="914" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B914" t="s">
         <v>128</v>
@@ -62060,7 +62014,7 @@
     </row>
     <row r="915" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B915" t="s">
         <v>129</v>
@@ -62089,7 +62043,7 @@
     </row>
     <row r="916" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B916" t="s">
         <v>130</v>
@@ -62118,7 +62072,7 @@
     </row>
     <row r="917" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B917" t="s">
         <v>131</v>
@@ -62147,7 +62101,7 @@
     </row>
     <row r="918" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B918" t="s">
         <v>132</v>
@@ -62176,7 +62130,7 @@
     </row>
     <row r="919" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B919" t="s">
         <v>133</v>
@@ -62205,7 +62159,7 @@
     </row>
     <row r="920" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B920" t="s">
         <v>134</v>
@@ -62234,7 +62188,7 @@
     </row>
     <row r="921" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B921" t="s">
         <v>135</v>
@@ -62263,7 +62217,7 @@
     </row>
     <row r="922" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B922" t="s">
         <v>136</v>
@@ -62292,7 +62246,7 @@
     </row>
     <row r="923" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B923" t="s">
         <v>137</v>
@@ -62321,7 +62275,7 @@
     </row>
     <row r="924" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B924" t="s">
         <v>138</v>
@@ -62350,7 +62304,7 @@
     </row>
     <row r="925" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B925" t="s">
         <v>139</v>
@@ -62379,7 +62333,7 @@
     </row>
     <row r="926" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B926" t="s">
         <v>140</v>
@@ -62408,7 +62362,7 @@
     </row>
     <row r="927" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B927" t="s">
         <v>141</v>
@@ -62437,7 +62391,7 @@
     </row>
     <row r="928" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B928" t="s">
         <v>142</v>
@@ -62466,7 +62420,7 @@
     </row>
     <row r="929" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B929" t="s">
         <v>143</v>
@@ -62495,7 +62449,7 @@
     </row>
     <row r="930" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B930" t="s">
         <v>144</v>
@@ -62524,7 +62478,7 @@
     </row>
     <row r="931" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B931" t="s">
         <v>145</v>
@@ -62553,7 +62507,7 @@
     </row>
     <row r="932" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B932" t="s">
         <v>146</v>
@@ -62582,7 +62536,7 @@
     </row>
     <row r="933" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B933" t="s">
         <v>147</v>
@@ -62611,7 +62565,7 @@
     </row>
     <row r="934" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B934" t="s">
         <v>148</v>
@@ -62640,7 +62594,7 @@
     </row>
     <row r="935" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B935" t="s">
         <v>149</v>
@@ -62669,7 +62623,7 @@
     </row>
     <row r="936" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B936" t="s">
         <v>150</v>
@@ -62698,7 +62652,7 @@
     </row>
     <row r="937" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B937" t="s">
         <v>151</v>
@@ -62727,7 +62681,7 @@
     </row>
     <row r="938" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B938" t="s">
         <v>152</v>
@@ -62756,7 +62710,7 @@
     </row>
     <row r="939" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B939" t="s">
         <v>153</v>
@@ -62785,7 +62739,7 @@
     </row>
     <row r="940" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B940" t="s">
         <v>154</v>
@@ -62814,7 +62768,7 @@
     </row>
     <row r="941" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B941" t="s">
         <v>155</v>
@@ -62843,7 +62797,7 @@
     </row>
     <row r="942" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B942" t="s">
         <v>156</v>
@@ -62872,7 +62826,7 @@
     </row>
     <row r="943" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B943" t="s">
         <v>157</v>
@@ -62901,7 +62855,7 @@
     </row>
     <row r="944" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B944" t="s">
         <v>158</v>
@@ -62930,7 +62884,7 @@
     </row>
     <row r="945" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B945" t="s">
         <v>159</v>
@@ -62959,7 +62913,7 @@
     </row>
     <row r="946" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B946" t="s">
         <v>160</v>
@@ -62988,7 +62942,7 @@
     </row>
     <row r="947" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B947" t="s">
         <v>161</v>
@@ -63017,7 +62971,7 @@
     </row>
     <row r="948" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B948" s="3" t="s">
         <v>195</v>
@@ -63046,7 +63000,7 @@
     </row>
     <row r="949" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>197</v>
@@ -63075,7 +63029,7 @@
     </row>
     <row r="950" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B950" s="3" t="s">
         <v>199</v>
@@ -63104,7 +63058,7 @@
     </row>
     <row r="951" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B951" s="3" t="s">
         <v>201</v>
@@ -63133,7 +63087,7 @@
     </row>
     <row r="952" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B952" s="3" t="s">
         <v>203</v>
@@ -63162,7 +63116,7 @@
     </row>
     <row r="953" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B953" s="3" t="s">
         <v>205</v>
@@ -63191,7 +63145,7 @@
     </row>
     <row r="954" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B954" t="s">
         <v>112</v>
@@ -63220,7 +63174,7 @@
     </row>
     <row r="955" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B955" t="s">
         <v>113</v>
@@ -63249,7 +63203,7 @@
     </row>
     <row r="956" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B956" t="s">
         <v>114</v>
@@ -63278,7 +63232,7 @@
     </row>
     <row r="957" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B957" t="s">
         <v>115</v>
@@ -63307,7 +63261,7 @@
     </row>
     <row r="958" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B958" t="s">
         <v>116</v>
@@ -63336,7 +63290,7 @@
     </row>
     <row r="959" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B959" t="s">
         <v>117</v>
@@ -63365,7 +63319,7 @@
     </row>
     <row r="960" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B960" t="s">
         <v>118</v>
@@ -63394,7 +63348,7 @@
     </row>
     <row r="961" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B961" t="s">
         <v>119</v>
@@ -63423,7 +63377,7 @@
     </row>
     <row r="962" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B962" t="s">
         <v>120</v>
@@ -63452,7 +63406,7 @@
     </row>
     <row r="963" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B963" t="s">
         <v>121</v>
@@ -63481,7 +63435,7 @@
     </row>
     <row r="964" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B964" t="s">
         <v>122</v>
@@ -63510,7 +63464,7 @@
     </row>
     <row r="965" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B965" t="s">
         <v>123</v>
@@ -63539,7 +63493,7 @@
     </row>
     <row r="966" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B966" t="s">
         <v>124</v>
@@ -63568,7 +63522,7 @@
     </row>
     <row r="967" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B967" t="s">
         <v>125</v>
@@ -63597,7 +63551,7 @@
     </row>
     <row r="968" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B968" t="s">
         <v>126</v>
@@ -63626,7 +63580,7 @@
     </row>
     <row r="969" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B969" t="s">
         <v>127</v>
@@ -63655,7 +63609,7 @@
     </row>
     <row r="970" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B970" t="s">
         <v>128</v>
@@ -63684,7 +63638,7 @@
     </row>
     <row r="971" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B971" t="s">
         <v>129</v>
@@ -63713,7 +63667,7 @@
     </row>
     <row r="972" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B972" t="s">
         <v>130</v>
@@ -63742,7 +63696,7 @@
     </row>
     <row r="973" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B973" t="s">
         <v>131</v>
@@ -63771,7 +63725,7 @@
     </row>
     <row r="974" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B974" t="s">
         <v>132</v>
@@ -63800,7 +63754,7 @@
     </row>
     <row r="975" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B975" t="s">
         <v>133</v>
@@ -63829,7 +63783,7 @@
     </row>
     <row r="976" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B976" t="s">
         <v>134</v>
@@ -63858,7 +63812,7 @@
     </row>
     <row r="977" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B977" t="s">
         <v>135</v>
@@ -63887,7 +63841,7 @@
     </row>
     <row r="978" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B978" t="s">
         <v>136</v>
@@ -63916,7 +63870,7 @@
     </row>
     <row r="979" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B979" t="s">
         <v>137</v>
@@ -63945,7 +63899,7 @@
     </row>
     <row r="980" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B980" t="s">
         <v>138</v>
@@ -63974,7 +63928,7 @@
     </row>
     <row r="981" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B981" t="s">
         <v>139</v>
@@ -64003,7 +63957,7 @@
     </row>
     <row r="982" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B982" t="s">
         <v>140</v>
@@ -64032,7 +63986,7 @@
     </row>
     <row r="983" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B983" t="s">
         <v>141</v>
@@ -64061,7 +64015,7 @@
     </row>
     <row r="984" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B984" t="s">
         <v>142</v>
@@ -64090,7 +64044,7 @@
     </row>
     <row r="985" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B985" t="s">
         <v>143</v>
@@ -64119,7 +64073,7 @@
     </row>
     <row r="986" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B986" t="s">
         <v>144</v>
@@ -64148,7 +64102,7 @@
     </row>
     <row r="987" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B987" t="s">
         <v>145</v>
@@ -64177,7 +64131,7 @@
     </row>
     <row r="988" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B988" t="s">
         <v>146</v>
@@ -64206,7 +64160,7 @@
     </row>
     <row r="989" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B989" t="s">
         <v>147</v>
@@ -64235,7 +64189,7 @@
     </row>
     <row r="990" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B990" t="s">
         <v>148</v>
@@ -64264,7 +64218,7 @@
     </row>
     <row r="991" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B991" t="s">
         <v>149</v>
@@ -64293,7 +64247,7 @@
     </row>
     <row r="992" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B992" t="s">
         <v>150</v>
@@ -64322,7 +64276,7 @@
     </row>
     <row r="993" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B993" t="s">
         <v>151</v>
@@ -64351,7 +64305,7 @@
     </row>
     <row r="994" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B994" t="s">
         <v>152</v>
@@ -64380,7 +64334,7 @@
     </row>
     <row r="995" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B995" t="s">
         <v>153</v>
@@ -64409,7 +64363,7 @@
     </row>
     <row r="996" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B996" t="s">
         <v>154</v>
@@ -64438,7 +64392,7 @@
     </row>
     <row r="997" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B997" t="s">
         <v>155</v>
@@ -64467,7 +64421,7 @@
     </row>
     <row r="998" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B998" t="s">
         <v>156</v>
@@ -64496,7 +64450,7 @@
     </row>
     <row r="999" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B999" t="s">
         <v>157</v>
@@ -64525,7 +64479,7 @@
     </row>
     <row r="1000" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1000" t="s">
         <v>158</v>
@@ -64554,7 +64508,7 @@
     </row>
     <row r="1001" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1001" t="s">
         <v>159</v>
@@ -64583,7 +64537,7 @@
     </row>
     <row r="1002" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1002" t="s">
         <v>160</v>
@@ -64612,7 +64566,7 @@
     </row>
     <row r="1003" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1003" t="s">
         <v>161</v>
@@ -64641,7 +64595,7 @@
     </row>
     <row r="1004" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1004" s="3" t="s">
         <v>195</v>
@@ -64670,7 +64624,7 @@
     </row>
     <row r="1005" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1005" s="3" t="s">
         <v>197</v>
@@ -64699,7 +64653,7 @@
     </row>
     <row r="1006" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1006" s="3" t="s">
         <v>199</v>
@@ -64728,7 +64682,7 @@
     </row>
     <row r="1007" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1007" s="3" t="s">
         <v>201</v>
@@ -64757,7 +64711,7 @@
     </row>
     <row r="1008" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1008" s="3" t="s">
         <v>203</v>
@@ -64786,7 +64740,7 @@
     </row>
     <row r="1009" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1009" s="3" t="s">
         <v>205</v>
@@ -64815,7 +64769,7 @@
     </row>
     <row r="1010" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1010" t="s">
         <v>112</v>
@@ -64844,7 +64798,7 @@
     </row>
     <row r="1011" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1011" t="s">
         <v>113</v>
@@ -64873,7 +64827,7 @@
     </row>
     <row r="1012" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1012" t="s">
         <v>114</v>
@@ -64902,7 +64856,7 @@
     </row>
     <row r="1013" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1013" t="s">
         <v>115</v>
@@ -64931,7 +64885,7 @@
     </row>
     <row r="1014" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1014" t="s">
         <v>116</v>
@@ -64960,7 +64914,7 @@
     </row>
     <row r="1015" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1015" t="s">
         <v>117</v>
@@ -64989,7 +64943,7 @@
     </row>
     <row r="1016" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1016" t="s">
         <v>118</v>
@@ -65018,7 +64972,7 @@
     </row>
     <row r="1017" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1017" t="s">
         <v>119</v>
@@ -65047,7 +65001,7 @@
     </row>
     <row r="1018" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1018" t="s">
         <v>120</v>
@@ -65076,7 +65030,7 @@
     </row>
     <row r="1019" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1019" t="s">
         <v>121</v>
@@ -65105,7 +65059,7 @@
     </row>
     <row r="1020" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1020" t="s">
         <v>122</v>
@@ -65134,7 +65088,7 @@
     </row>
     <row r="1021" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1021" t="s">
         <v>123</v>
@@ -65163,7 +65117,7 @@
     </row>
     <row r="1022" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1022" t="s">
         <v>124</v>
@@ -65192,7 +65146,7 @@
     </row>
     <row r="1023" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1023" t="s">
         <v>125</v>
@@ -65221,7 +65175,7 @@
     </row>
     <row r="1024" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1024" t="s">
         <v>126</v>
@@ -65250,7 +65204,7 @@
     </row>
     <row r="1025" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1025" t="s">
         <v>127</v>
@@ -65279,7 +65233,7 @@
     </row>
     <row r="1026" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1026" t="s">
         <v>128</v>
@@ -65308,7 +65262,7 @@
     </row>
     <row r="1027" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1027" t="s">
         <v>129</v>
@@ -65337,7 +65291,7 @@
     </row>
     <row r="1028" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1028" t="s">
         <v>130</v>
@@ -65366,7 +65320,7 @@
     </row>
     <row r="1029" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1029" t="s">
         <v>131</v>
@@ -65395,7 +65349,7 @@
     </row>
     <row r="1030" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1030" t="s">
         <v>132</v>
@@ -65424,7 +65378,7 @@
     </row>
     <row r="1031" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1031" t="s">
         <v>133</v>
@@ -65453,7 +65407,7 @@
     </row>
     <row r="1032" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1032" t="s">
         <v>134</v>
@@ -65482,7 +65436,7 @@
     </row>
     <row r="1033" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1033" t="s">
         <v>135</v>
@@ -65511,7 +65465,7 @@
     </row>
     <row r="1034" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1034" t="s">
         <v>136</v>
@@ -65540,7 +65494,7 @@
     </row>
     <row r="1035" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1035" t="s">
         <v>137</v>
@@ -65569,7 +65523,7 @@
     </row>
     <row r="1036" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1036" t="s">
         <v>138</v>
@@ -65598,7 +65552,7 @@
     </row>
     <row r="1037" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1037" t="s">
         <v>139</v>
@@ -65627,7 +65581,7 @@
     </row>
     <row r="1038" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1038" t="s">
         <v>140</v>
@@ -65656,7 +65610,7 @@
     </row>
     <row r="1039" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1039" t="s">
         <v>141</v>
@@ -65685,7 +65639,7 @@
     </row>
     <row r="1040" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1040" t="s">
         <v>142</v>
@@ -65714,7 +65668,7 @@
     </row>
     <row r="1041" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1041" t="s">
         <v>143</v>
@@ -65743,7 +65697,7 @@
     </row>
     <row r="1042" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1042" t="s">
         <v>144</v>
@@ -65772,7 +65726,7 @@
     </row>
     <row r="1043" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1043" t="s">
         <v>145</v>
@@ -65801,7 +65755,7 @@
     </row>
     <row r="1044" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1044" t="s">
         <v>146</v>
@@ -65830,7 +65784,7 @@
     </row>
     <row r="1045" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1045" t="s">
         <v>147</v>
@@ -65859,7 +65813,7 @@
     </row>
     <row r="1046" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1046" t="s">
         <v>148</v>
@@ -65888,7 +65842,7 @@
     </row>
     <row r="1047" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1047" t="s">
         <v>149</v>
@@ -65917,7 +65871,7 @@
     </row>
     <row r="1048" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1048" t="s">
         <v>150</v>
@@ -65946,7 +65900,7 @@
     </row>
     <row r="1049" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1049" t="s">
         <v>151</v>
@@ -65975,7 +65929,7 @@
     </row>
     <row r="1050" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1050" t="s">
         <v>152</v>
@@ -66004,7 +65958,7 @@
     </row>
     <row r="1051" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1051" t="s">
         <v>153</v>
@@ -66033,7 +65987,7 @@
     </row>
     <row r="1052" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1052" t="s">
         <v>154</v>
@@ -66062,7 +66016,7 @@
     </row>
     <row r="1053" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1053" t="s">
         <v>155</v>
@@ -66091,7 +66045,7 @@
     </row>
     <row r="1054" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1054" t="s">
         <v>156</v>
@@ -66120,7 +66074,7 @@
     </row>
     <row r="1055" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1055" t="s">
         <v>157</v>
@@ -66149,7 +66103,7 @@
     </row>
     <row r="1056" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1056" t="s">
         <v>158</v>
@@ -66178,7 +66132,7 @@
     </row>
     <row r="1057" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1057" t="s">
         <v>159</v>
@@ -66207,7 +66161,7 @@
     </row>
     <row r="1058" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1058" t="s">
         <v>160</v>
@@ -66236,7 +66190,7 @@
     </row>
     <row r="1059" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1059" t="s">
         <v>161</v>
@@ -66265,7 +66219,7 @@
     </row>
     <row r="1060" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1060" s="3" t="s">
         <v>195</v>
@@ -66294,7 +66248,7 @@
     </row>
     <row r="1061" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1061" s="3" t="s">
         <v>197</v>
@@ -66323,7 +66277,7 @@
     </row>
     <row r="1062" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1062" s="3" t="s">
         <v>199</v>
@@ -66352,7 +66306,7 @@
     </row>
     <row r="1063" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1063" s="3" t="s">
         <v>201</v>
@@ -66381,7 +66335,7 @@
     </row>
     <row r="1064" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1064" s="3" t="s">
         <v>203</v>
@@ -66410,7 +66364,7 @@
     </row>
     <row r="1065" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1065" s="3" t="s">
         <v>205</v>
@@ -66439,7 +66393,7 @@
     </row>
     <row r="1066" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1066" t="s">
         <v>112</v>
@@ -66468,7 +66422,7 @@
     </row>
     <row r="1067" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1067" t="s">
         <v>113</v>
@@ -66497,7 +66451,7 @@
     </row>
     <row r="1068" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1068" t="s">
         <v>114</v>
@@ -66526,7 +66480,7 @@
     </row>
     <row r="1069" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1069" t="s">
         <v>115</v>
@@ -66555,7 +66509,7 @@
     </row>
     <row r="1070" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1070" t="s">
         <v>116</v>
@@ -66584,7 +66538,7 @@
     </row>
     <row r="1071" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1071" t="s">
         <v>117</v>
@@ -66613,7 +66567,7 @@
     </row>
     <row r="1072" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1072" t="s">
         <v>118</v>
@@ -66642,7 +66596,7 @@
     </row>
     <row r="1073" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1073" t="s">
         <v>119</v>
@@ -66671,7 +66625,7 @@
     </row>
     <row r="1074" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1074" t="s">
         <v>120</v>
@@ -66700,7 +66654,7 @@
     </row>
     <row r="1075" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1075" t="s">
         <v>121</v>
@@ -66729,7 +66683,7 @@
     </row>
     <row r="1076" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1076" t="s">
         <v>122</v>
@@ -66758,7 +66712,7 @@
     </row>
     <row r="1077" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1077" t="s">
         <v>123</v>
@@ -66787,7 +66741,7 @@
     </row>
     <row r="1078" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1078" t="s">
         <v>124</v>
@@ -66816,7 +66770,7 @@
     </row>
     <row r="1079" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1079" t="s">
         <v>125</v>
@@ -66845,7 +66799,7 @@
     </row>
     <row r="1080" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1080" t="s">
         <v>126</v>
@@ -66874,7 +66828,7 @@
     </row>
     <row r="1081" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1081" t="s">
         <v>127</v>
@@ -66903,7 +66857,7 @@
     </row>
     <row r="1082" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1082" t="s">
         <v>128</v>
@@ -66932,7 +66886,7 @@
     </row>
     <row r="1083" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1083" t="s">
         <v>129</v>
@@ -66961,7 +66915,7 @@
     </row>
     <row r="1084" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1084" t="s">
         <v>130</v>
@@ -66990,7 +66944,7 @@
     </row>
     <row r="1085" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1085" t="s">
         <v>131</v>
@@ -67019,7 +66973,7 @@
     </row>
     <row r="1086" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1086" t="s">
         <v>132</v>
@@ -67048,7 +67002,7 @@
     </row>
     <row r="1087" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1087" t="s">
         <v>133</v>
@@ -67077,7 +67031,7 @@
     </row>
     <row r="1088" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1088" t="s">
         <v>134</v>
@@ -67106,7 +67060,7 @@
     </row>
     <row r="1089" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1089" t="s">
         <v>135</v>
@@ -67135,7 +67089,7 @@
     </row>
     <row r="1090" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1090" t="s">
         <v>136</v>
@@ -67164,7 +67118,7 @@
     </row>
     <row r="1091" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1091" t="s">
         <v>137</v>
@@ -67193,7 +67147,7 @@
     </row>
     <row r="1092" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1092" t="s">
         <v>138</v>
@@ -67222,7 +67176,7 @@
     </row>
     <row r="1093" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1093" t="s">
         <v>139</v>
@@ -67251,7 +67205,7 @@
     </row>
     <row r="1094" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1094" t="s">
         <v>140</v>
@@ -67280,7 +67234,7 @@
     </row>
     <row r="1095" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1095" t="s">
         <v>141</v>
@@ -67309,7 +67263,7 @@
     </row>
     <row r="1096" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1096" t="s">
         <v>142</v>
@@ -67338,7 +67292,7 @@
     </row>
     <row r="1097" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1097" t="s">
         <v>143</v>
@@ -67367,7 +67321,7 @@
     </row>
     <row r="1098" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1098" t="s">
         <v>144</v>
@@ -67396,7 +67350,7 @@
     </row>
     <row r="1099" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1099" t="s">
         <v>145</v>
@@ -67425,7 +67379,7 @@
     </row>
     <row r="1100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1100" t="s">
         <v>146</v>
@@ -67454,7 +67408,7 @@
     </row>
     <row r="1101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1101" t="s">
         <v>147</v>
@@ -67483,7 +67437,7 @@
     </row>
     <row r="1102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1102" t="s">
         <v>148</v>
@@ -67512,7 +67466,7 @@
     </row>
     <row r="1103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1103" t="s">
         <v>149</v>
@@ -67541,7 +67495,7 @@
     </row>
     <row r="1104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1104" t="s">
         <v>150</v>
@@ -67570,7 +67524,7 @@
     </row>
     <row r="1105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1105" t="s">
         <v>151</v>
@@ -67599,7 +67553,7 @@
     </row>
     <row r="1106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1106" t="s">
         <v>152</v>
@@ -67628,7 +67582,7 @@
     </row>
     <row r="1107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1107" t="s">
         <v>153</v>
@@ -67657,7 +67611,7 @@
     </row>
     <row r="1108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1108" t="s">
         <v>154</v>
@@ -67686,7 +67640,7 @@
     </row>
     <row r="1109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1109" t="s">
         <v>155</v>
@@ -67715,7 +67669,7 @@
     </row>
     <row r="1110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1110" t="s">
         <v>156</v>
@@ -67744,7 +67698,7 @@
     </row>
     <row r="1111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1111" t="s">
         <v>157</v>
@@ -67773,7 +67727,7 @@
     </row>
     <row r="1112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1112" t="s">
         <v>158</v>
@@ -67802,7 +67756,7 @@
     </row>
     <row r="1113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1113" t="s">
         <v>159</v>
@@ -67831,7 +67785,7 @@
     </row>
     <row r="1114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1114" t="s">
         <v>160</v>
@@ -67860,7 +67814,7 @@
     </row>
     <row r="1115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1115" t="s">
         <v>161</v>
@@ -67889,7 +67843,7 @@
     </row>
     <row r="1116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1116" s="3" t="s">
         <v>195</v>
@@ -67918,7 +67872,7 @@
     </row>
     <row r="1117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1117" s="3" t="s">
         <v>197</v>
@@ -67947,7 +67901,7 @@
     </row>
     <row r="1118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1118" s="3" t="s">
         <v>199</v>
@@ -67976,7 +67930,7 @@
     </row>
     <row r="1119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1119" s="3" t="s">
         <v>201</v>
@@ -68005,7 +67959,7 @@
     </row>
     <row r="1120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1120" s="3" t="s">
         <v>203</v>
@@ -68034,7 +67988,7 @@
     </row>
     <row r="1121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1121" s="3" t="s">
         <v>205</v>
@@ -68064,27 +68018,27 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="E2:I897">
-    <cfRule type="cellIs" dxfId="65" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E898:I953">
-    <cfRule type="cellIs" dxfId="64" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E954:I1009">
-    <cfRule type="cellIs" dxfId="63" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1010:I1065">
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1066:I1121">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -69733,7 +69687,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B82" t="s">
         <v>107</v>
@@ -69753,7 +69707,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B83" t="s">
         <v>108</v>
@@ -69773,7 +69727,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B84" t="s">
         <v>109</v>
@@ -69793,7 +69747,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B85" t="s">
         <v>110</v>
@@ -69813,7 +69767,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B86" t="s">
         <v>111</v>
@@ -69833,7 +69787,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B87" t="s">
         <v>107</v>
@@ -69853,7 +69807,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B88" t="s">
         <v>108</v>
@@ -69873,7 +69827,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B89" t="s">
         <v>109</v>
@@ -69893,7 +69847,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B90" t="s">
         <v>110</v>
@@ -69913,7 +69867,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B91" t="s">
         <v>111</v>
@@ -69933,7 +69887,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B92" t="s">
         <v>107</v>
@@ -69953,7 +69907,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B93" t="s">
         <v>108</v>
@@ -69973,7 +69927,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B94" t="s">
         <v>109</v>
@@ -69993,7 +69947,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B95" t="s">
         <v>110</v>
@@ -70013,7 +69967,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B96" t="s">
         <v>111</v>
@@ -70033,7 +69987,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B97" t="s">
         <v>107</v>
@@ -70053,7 +70007,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B98" t="s">
         <v>108</v>
@@ -70073,7 +70027,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B99" t="s">
         <v>109</v>
@@ -70093,7 +70047,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B100" t="s">
         <v>110</v>
@@ -70113,7 +70067,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B101" t="s">
         <v>111</v>
@@ -70134,27 +70088,27 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="C2:F81">
-    <cfRule type="cellIs" dxfId="60" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:F86">
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:F91">
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:F96">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C97:F101">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -70228,16 +70182,16 @@
         <v>84</v>
       </c>
       <c r="R1" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>365</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -71282,7 +71236,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B18" s="7">
         <v>0</v>
@@ -71347,7 +71301,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B19" s="7">
         <v>0</v>
@@ -71412,7 +71366,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B20" s="7">
         <v>0</v>
@@ -71477,7 +71431,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B21" s="7">
         <v>0</v>
@@ -71543,127 +71497,127 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="B2:Q17">
-    <cfRule type="cellIs" dxfId="55" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:Q19">
-    <cfRule type="cellIs" dxfId="54" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:Q18">
-    <cfRule type="cellIs" dxfId="53" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:Q20">
-    <cfRule type="cellIs" dxfId="52" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:Q21">
-    <cfRule type="cellIs" dxfId="51" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R17">
-    <cfRule type="cellIs" dxfId="50" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19">
-    <cfRule type="cellIs" dxfId="49" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18">
-    <cfRule type="cellIs" dxfId="48" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" dxfId="47" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R21">
-    <cfRule type="cellIs" dxfId="46" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S17">
-    <cfRule type="cellIs" dxfId="45" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19">
-    <cfRule type="cellIs" dxfId="44" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18">
-    <cfRule type="cellIs" dxfId="43" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S21">
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T17">
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20">
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U17">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19">
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U20">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U21">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -71737,16 +71691,16 @@
         <v>84</v>
       </c>
       <c r="R1" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>365</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -72791,7 +72745,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B18" s="7">
         <v>0</v>
@@ -72856,7 +72810,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B19" s="7">
         <v>0</v>
@@ -72921,7 +72875,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B20" s="7">
         <v>0</v>
@@ -72986,7 +72940,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B21" s="7">
         <v>0</v>
@@ -73051,127 +73005,127 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:Q17">
-    <cfRule type="cellIs" dxfId="30" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R17">
-    <cfRule type="cellIs" dxfId="29" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S17">
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T17">
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U17">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:Q19">
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:Q18">
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:Q20">
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:Q21">
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19">
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18">
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R21">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S21">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U20">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U21">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
